--- a/reviewData/review_던전앤파이터 모바일.xlsx
+++ b/reviewData/review_던전앤파이터 모바일.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,56 +500,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bd0e6542-cbc4-43dc-825d-e7ff91123385</t>
+          <t>ef3515d6-8d25-4b5c-9097-5391700abea9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>최병선</t>
+          <t>김대현</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocI-2ihAuM2J9XgCJWpj-edzbZeFyaouSL3_JrLqEvkfcsQc4A=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJD-GsO5_64Rl7os0GNigRYIam-2mGTqz0eJklLLiYvQFX29A=mo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>이번에 총사클체안나오면 접습니다ㅠㅠ 1년넘게 기다리는데..ㅠㅠ</t>
+          <t>굳 초보들도 하기 쉬움</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45535.85309027778</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-기대하신 만큼의 만족감을 드리지 못해 마음이
-무겁습니다.
-게임 운영에 보다 더 신경쓰도록 하며 개선된
-모습으로 보답해 드릴 수 있도록 항상 노력하는
-리니지M이 되겠습니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>45536.64630787037</v>
-      </c>
+        <v>45535.76615740741</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -559,22 +546,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3f589b05-da8b-4ca8-8fe7-0c051ba8314d</t>
+          <t>14c7573d-6d4e-4979-b6ba-1e0617e1ec0e</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>박수혁</t>
+          <t>박준섭</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocK_4QP4DJM5cJAho_MPiGzOdzl59DEv1t_OzJJvV4UD_r1k8g=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLklh8ov90kD7-LA5aFw6M4Sz1LzHT8zpT3HbVdzp1vtl1H6w=mo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>굿</t>
+          <t>오랜만에 재미있네요~</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -583,26 +570,21 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
       <c r="I3" s="2" t="n">
-        <v>45535.13179398148</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-즐거운 마음으로 리뷰를 달아주셨네요.
-고객님의 기대에 충족 할 수 있도록
-노력하는 리니지M이 되도록
-최선을 하겠습니다.
-고맙습니다.
-</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>45535.36902777778</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
+        <v>45535.615</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -610,56 +592,55 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8e64dcf3-9f99-4d5e-9393-1b3e81625a7b</t>
+          <t>498d2a87-e1e3-4df1-8af4-ee40a7a2b813</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>박상훈</t>
+          <t>도야지</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIgmB_LP6Wfegu5NOfwJvXn_-vBsAwX8rYiYc0uvsjOYTV23g=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIX1QtQcog0gBCKsbKe_jRR5Ecpa_pxz_0QJIuzkQl174Xny_g=mo</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>국내 모바일게임산업의 성장과 무수한 아이디어가능성을 차단시켜버린 가챠, 이익을위해서라면 뭐든하는 중소기업 대기업이 될수없는 이유를 여실히 보여준게임</t>
+          <t>제발 다른 거 다 필요없어요 모바일 최적화만해주세요 던전입장시 렉이 너무 심합니다 노트시리즈를 써도 마찬가지에요 제발 폰게임답게 최적화만부탁합니다 더 이상 바라지 않을게요</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.1.26a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I4" s="2" t="n">
-        <v>45535.07829861111</v>
+        <v>45534.48643518519</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것 같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록 하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우 plaync 고객지원을
-통해 문의하기를 이용 해주시기를 바랍니다.
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+게임 플레이 중 아쉬운 부분들을 말씀해 주셨습니다.
+리뷰를 통해 전해 주신 소중한 의견들을 잊지 않고 꼼꼼하게 검토해 보겠으며,
+관련하여 변동되는 사항이 있을 경우 공식 커뮤니티 공지를 통해 안내해 드리겠습니다.
+이 외에도 게임 플레이 중 전하고 싶은 의견이 있으시다면
+공식 커뮤니티 또는 게임 내 고객센터를 통해 전달 주세요.
 감사합니다.</t>
         </is>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45535.33881944444</v>
+        <v>45538.2734375</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1.1.26a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -669,58 +650,54 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22fa25f8-2c9d-46e3-a8ed-bd6be8a647d9</t>
+          <t>f8554dc0-935b-411e-b70d-240580b386e3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>서상태</t>
+          <t>박상진</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLOxT_KJSAAgdJaHCj1x_jmV6lw0tTeTJxutmuu2uTA-7Ezlw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUKlbFkzTPmt6EQI8g-PSa4gy4DvlAxdwC9mQKpeZIn6ngPSZpG</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>두르마리 업데이트 했으면 경치를 주든가 맨날 또같은 패턴 도대체 뭐하냐 죽제도 개선좀 해라 지겨워 죽겠다 맵은 사람은 많고 몹은 없고 글러블 그업맞냐 우리가 얘기해야 고치고 수정하고 지겹지도 안냐 월급 받으면 그만한 가치있게 좀 하자 우리는 돈 쓴다고 맨날 라면먹고 사는게 너거는 소고기 먹겠지</t>
+          <t>다좋은데 스킬창에오류뜨는데그거 오류빨리잡아주세요 다른건건들지말구요</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I5" s="2" t="n">
-        <v>45533.97236111111</v>
+        <v>45534.3312962963</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 남겨주셔서
-감사합니다.
-고객님께 바라시는 만큼 만족감을 드리지
-못한 것 같아 마음이 무겁습니다.
-고객님께서 만족스럽게 즐길 수 있는
-게임이 되기 위해 노력하는 리니지M이
-되도록 하겠습니다.
-고맙습니다.</t>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+오류 현상으로 불편을 겪으셨을 마음, 깊이 공감됩니다.
+전달 주신 내용은 내부적으로 꼼꼼하게 살펴볼 수 있도록 하겠습니다.
+더불어, 이용 중 문제가 있으시다면 게임 내 제보창구를 통해 접수 부탁드리겠습니다.
+더욱 빠른 정보 취합 및 조사가 가능하오니 참고 부탁드립니다.
+감사합니다.</t>
         </is>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45534.60668981481</v>
+        <v>45538.27353009259</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -730,57 +707,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>b9512adb-a1fa-4225-a109-fb7826ff3334</t>
+          <t>6aeb8fe7-3687-465c-babd-a938d14b4d48</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>박찬원</t>
+          <t>이열이감기</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLrBOtVPNv9rm0LOsk2leU7Mp0UqPL8Ki9gIrKzaSMWLnRd5Q=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocL6xz-CKt-qE3yCUd15JyffeYKaiU2j-HrxYDFz2l3169FG_A=mo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>핸드폰으로 결재하니 결재는 됐늦데 다아가 업네요</t>
+          <t>안녕하세요 한번 시작하면 너무 재밌어요 ㅋㅋㅋㅋ 안녕하세요 운영장님 절대로 포기하지마세요 포기하지않는면요 희망이보입니다 ㅋㅋㅋㅋ</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I6" s="2" t="n">
-        <v>45533.49799768518</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께서는 결제 후 해당 상품이 확인되지 않아 리뷰를 남겨주셨네요.
-안타깝게도 기재해주신 리뷰 내용만으로는 리뷰를 통해 상세한
-확인이 어려운 점 양해 부탁드립니다.
-번거로우시더라도 기재해주신 내용과 주문번호를 작성하시어
-plaync 고객지원를 통해 문의 접수를 해주시면 면밀히
-확인하여 최대한 빠르게 도움을 드리겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>45533.69004629629</v>
-      </c>
+        <v>45534.326875</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -790,49 +753,45 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>525eae94-6b8d-4a8f-923b-7125ab58b993</t>
+          <t>d8e0f165-644c-433c-8194-68608480671e</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>최성용</t>
+          <t>정희석</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJcK1XhjSMvDeIZldQ9oxuwbmZIJiBnBr0FhseZxiJIqmmVhg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK931nFD0iKt3kvJA7ujIg5ze0ViTlVEWBkQBX6F83OxJC1iQ=mo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>굿</t>
+          <t>버서커 결장 밸페좀 해주세요 너무 좋음...</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
       <c r="I7" s="2" t="n">
-        <v>45533.17184027778</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-즐거운 마음으로 리뷰를 달아주셨네요.
-고객님의 기대에 충족 할 수 있도록
-노력하는 리니지M이 되도록
-최선을 하겠습니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>45533.68946759259</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+        <v>45534.24365740741</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -840,33 +799,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5cdc6d30-42e2-407e-99a2-ac5e7248e57b</t>
+          <t>212269f0-9525-47e8-b1fc-4b75ed9ad29c</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>김태봉</t>
+          <t>돼징어</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXKplrSxzD_2QV_098KPVzStbxN4la6_PgTB9uCcq5X6cW4ftIT</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKOJPAQIWI8ZF877r2Ml61D_YSDb1adpiTZAUay2a8MnoESRA=mo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>현질천국</t>
+          <t>궁수캐릭 나올때 시작한다</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" s="2" t="n">
-        <v>45532.84381944445</v>
+        <v>45533.73444444445</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -878,43 +837,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>26ab53c0-22a6-4fff-88e7-94820fc8948e</t>
+          <t>9a4dc07a-619a-4737-8b72-1c4bd4fa864f</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>최정원</t>
+          <t>KW Kim</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUjEDyN3s9Tju2MpY7VASuy1w-u8dbKoXnd8u0BS0vIZ6rQE8c</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKLsTujz2fUGRgbj-2jZr2Ex6j2IZHGvJ8ZOly2QksSLcqXHA=mo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>뽑기 감사</t>
+          <t>굿~</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I9" s="2" t="n">
-        <v>45532.81336805555</v>
+        <v>45533.685</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -924,55 +883,53 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29301e69-05a5-4ee2-bddb-d74e63f5659c</t>
+          <t>105feba9-7d55-4d6b-b000-2f8754ae889e</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>장현탁</t>
+          <t>양기수</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKwCDNCQWEw-1evxObL8VIKv5SODWaQAs5TIIMT8EJ1N7Ao0w=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIIqoCcU3dGySsgjR-LURZZ68zaQyow4MAAS1fh1ZRHdpwvcg=mo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>한번도 안해본 사람은 있어도 한번만 한사람은 없다는 중독성 최강 리니지 짱인듯 !</t>
+          <t>Pc던파와는 다르게 레이드 입문으로 혼자 돌수 있어서 시작했는데 이제는 입문이 안나오네요 게임은 재밌었지만 성장해야하는 이유가 없어져서 흥미가 떨어져서 접습니다.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I10" s="2" t="n">
-        <v>45532.80269675926</v>
+        <v>45533.58782407407</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리뷰 남겨주셔서 감사드립니다.
-리니지M을 플레이해 주시는 고객님들께
-만족스러운 서비스를 제공해드릴 수 있도록
-최선을 다하겠습니다.
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+소중한 시간을 내주시어 리뷰 남겨 주셨지만 즐거움을 드리기에는 부족했던 것 같습니다.
+남겨주신 질책과 조언은 겸허히 받아들이고 앞으로 양질의 서비스로 보답 드리겠습니다.
+항상 즐거운 경험만 드릴 수 있게 앞장서겠습니다.
 감사합니다.</t>
         </is>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45533.68833333333</v>
+        <v>45538.27361111111</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -982,57 +939,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16b21753-63de-405b-9368-a2b54fe365aa</t>
+          <t>3bdbb60e-6617-4600-8a39-0f9276e39b37</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>조영수</t>
+          <t>승규</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIdArG8hOmG9GYjD7VaS4zN52F_2EudxmU7bDe5scP-wyOBoQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJIDDR3RjIc_RrKNSiyp1oxda29L6oYW3J3HelXnIL0KqYtfQ=mo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>젬있긴하지만 돈이 너무 많이 들어요ㅠ</t>
+          <t>갓겜!!</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.3.10a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>45532.79181712963</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것 같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록 하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우 plaync 고객지원을
-통해 문의하기를 이용 해주시기를 바랍니다.
-감사합니다.
-</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>45533.68804398148</v>
-      </c>
+        <v>45533.41305555555</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.3.10a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -1042,61 +985,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1e9625c6-ae8e-4383-ab9d-81eec9db970c</t>
+          <t>35ccbeff-704e-43c0-b136-c9d4b9462f41</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>왕해머</t>
+          <t>HOME</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWdiOitEZoutipKst13Jji_qjuoIX0Aezgi116hFj08q1FkKBOQ</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJslpihlfW2SFLrQqg4cCAnUM4AFNd-yWhl6No9i9bboI8krg=mo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>오픈하자마자 과금하고 여지껏했는데 영비나 빨템 아이템 한번도 먹지못함..전설 인형이나 전설 성물 하나라도 있음 소원이 없겠다..</t>
+          <t>오토만 됬었어도</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>1.8.88a</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" s="2" t="n">
-        <v>45532.57306712963</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께서는 원하시는 아이템을 획득하지
-못하시어 아쉬운 마음으로 리뷰를 남겨주셨네요.
-혹여, 게임 이용 중 궁금하시거나, 다른 의견이 있으실
-경우 plaync 고객지원를 통해 문의를 남겨주시면,
-확인 후 빠르게 도움을 드리겠습니다.
-추후 게임 이용간 많은 아이템 획득이 있기를
-응원하겠습니다.
-감사합니다.
-</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>45533.68607638889</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1.8.88a</t>
-        </is>
-      </c>
+        <v>45533.0940162037</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1104,22 +1023,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3025cadf-d82d-4b40-a07c-f74c8a2e84e1</t>
+          <t>399712be-7197-4164-9204-239b384afaed</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>H성준</t>
+          <t>심한라</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIt1UxCe-2PQ6D-lTku77efylPYLoSnkj96rqu8wwZdkt3FqA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ5vZr1WlsFniWAiL17hi9kGNa-7u_8XAIYPuKSPBOlFbv7oA=mo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>존잼</t>
+          <t>꿀잼</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1130,30 +1049,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>45532.40415509259</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M과 즐거운 시간을 보내고 계시다니
-너무나도 기분이 좋습니다..
-소중한 시간 내어 작성해주신 리뷰 내용에 힘입어
-고객님의 기대에 부응할 수 있도록
-더욱더 알찬 컨텐츠로 찾아뵙겠습니다.
-감사합니다</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>45532.44495370371</v>
-      </c>
+        <v>45532.69923611111</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1.8.88a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -1163,52 +1069,45 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>19fbdb03-016f-4536-9501-258ead4ad12e</t>
+          <t>49bb0dcb-bdec-46cc-9bb5-b1b32b7f94db</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>김상근</t>
+          <t>뭐이건</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLt0SzMLCmmvT1AQCxfQsZD4dwzyirEBeAxTBzbqt7pru1M-w=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLVkhAR_AD5xI5fSVOROmv65Bm1AQn3DXWjuZyLAVhJVXMdkA=mo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>도박게임</t>
+          <t>너무 꿀잼</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
       <c r="I14" s="2" t="n">
-        <v>45532.33259259259</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것
-같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록
-하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우
-문의하기를 이용 해주시기를 바랍니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>45532.45106481481</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
+        <v>45532.52042824074</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1216,22 +1115,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15dbe224-068b-4afa-b7b6-bf64fdb08c23</t>
+          <t>18e08745-4fdf-4da1-9747-dc967f17d271</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>신점환</t>
+          <t>범블비</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJi2bj-0G6PefOjdHjxX4fj-2lIT-yK6TmnK83n53wVbz0G4A=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUnh8v0agk1C-WrNvrSTy-uGYCr4n6in77QcNYia0ihiT-rUdIq</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>제발 요정 소울 개선좀 해주세요 게임명은 리니지m인데 pc 퍼플 녹화기능 아니면 게임사용이 불편하다는게 납득이 안되네요</t>
+          <t>재미있습니다ㅎ</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1240,30 +1139,21 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
       <c r="I15" s="2" t="n">
-        <v>45532.32940972222</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-충분한 재미를 드리지 못한 것 같아
-너무나도 마음이 무겁습니다.
-남겨주신 소중한 리뷰를 통해 보다 더
-개선된 서비스와 즐거움을 드릴 수 있도록
-최선을 다하는 리니지M이 되겠습니다.
-궁금하신 사항이나 건의사항이 있으실 경우
-언제라도 plaync 고객지원 문의하기를 통해
-문의해 주시길 바랍니다.
-고맙습니다.
-</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>45532.44462962963</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
+        <v>45532.42886574074</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1271,22 +1161,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1f8a4bd1-0afd-4042-88f7-453f0461b392</t>
+          <t>da0fe641-e517-428b-becc-6f5f58c3cffb</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>정강희</t>
+          <t>곽성규</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJsPwLvXHpSGlqyWFkkDV8JYihuVXXkpBu6ibVdxjFVSu4NiA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIPh2H4qknNIMSJhNMqYiz_mWSg_spMtS7sndbXNY7JI_7QYg=mo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>이런 그지같은 게임 하지말자 별 한개두 주기 아깝다</t>
+          <t>오랜만에 해볼려고 하니 80렙 올릴려면 항마력 따지는 형식으로 바뀌었네 항마력 안되서 다시 삭제 스토리형식으로 즐길만한 게임은 이젠 없어졌네 역시 운빨~~ 현질게임</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1297,17 +1187,28 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I16" s="2" t="n">
-        <v>45531.94385416667</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>45531.71166666667</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+최적의 서비스와 재미를 드리기 위해 많은 노력을 하였지만 아쉬움만
+드린 것 같아 송구한 마음입니다.
+말씀 주신 내용 항상 참고하여 더욱 즐거움만 드릴 수 있게 고민하겠습니다.
+더욱더 개선되는 모습 지켜봐 주시길 바랍니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>44694.77907407407</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -1317,22 +1218,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6f115145-1c32-4486-94f3-a456bf3bba2b</t>
+          <t>4e030a38-e042-4e31-a88d-303bccd18a3e</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>JAE SIK OH</t>
+          <t>김주현</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIbJFQCdeRwBqBG1wRVtyi8Fg601e1YPcHdVRE01ZD4MlLyqQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI1M4y9v6WHD35OxURNlyj43CmDhTySWo_va5Fq3NUt_aTrFw=mo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>레벨 올리기 쉬워요.</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1343,17 +1244,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I17" s="2" t="n">
-        <v>45531.79274305556</v>
+        <v>45531.18017361111</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -1363,58 +1264,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>81df5376-7ac2-40a9-a4c4-1b8d8a98b242</t>
+          <t>07f6b543-d49d-497c-a344-d16f95dd908c</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>권현수</t>
+          <t>RAIN WINTER</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUDVmmtgmIFNsKkIRwXk4l_0-x9hjQgnAOLP5uE1pq4fMOnsFvJ</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW733_Ygrlu-A97tdEtG8fWh2tqTD4D0UKrRuplOfZNHGbCKWNg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>그냥 최고의게임ㅎㅎㅎ10년이상유지되는 겜이됫으면 좋겠습니다.</t>
+          <t>돈슨 만세</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>1.8.85a</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" s="2" t="n">
-        <v>45531.50613425926</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M과 즐거운 시간을 보내고 계시다니
-너무나도 기분이 좋습니다..
-소중한 시간 내어 작성해주신 리뷰 내용에 힘입어
-고객님의 기대에 부응할 수 있도록
-더욱더 알찬 컨텐츠로 찾아뵙겠습니다.
-감사합니다</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>45531.64375</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>1.8.85a</t>
-        </is>
-      </c>
+        <v>45530.85518518519</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1422,52 +1302,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3e51386d-e4c8-4e5f-bf23-ba24ade7ca9d</t>
+          <t>a165e9f6-cf8c-4152-84bc-3a4bf95a49d3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>장희운</t>
+          <t>김호영</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW04IXlErT8WDVcx553_wpaYY9C9dt3C85MYKBXu3P96N6NWUaZ</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLaT6Aam3l3BgpidXq5Eq7h9m4u_2HFOQLHWj3ImYLl7ECzbg=mo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>해도너무해서 방금 장비다지르고 계정다 탈퇴했다 리니지24년만에 계정삭제하고 이제 쳐다도안보련다</t>
+          <t>와 진짜 재밌어용ㅎ</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" s="2" t="n">
-        <v>45531.35972222222</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-충분한 재미를 드리지 못한 것 같아
-너무나도 마음이 무겁습니다.
-남겨주신 소중한 리뷰를 통해 보다 더
-개선된 서비스와 즐거움을 드릴 수 있도록
-최선을 다하는 리니지M이 되겠습니다.
-궁금하신 사항이나 건의사항이 있으실 경우
-언제라도 plaync 고객지원 문의하기를 통해
-문의해 주시길 바랍니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>45531.65387731481</v>
-      </c>
+        <v>45530.49376157407</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1476,60 +1340,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>c6137e71-ebae-4d3b-9b56-c7cf259cbbfb</t>
+          <t>3bc6cf3d-84ec-46c6-ac66-8f98998e5211</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>모래시계</t>
+          <t>1 “‪jongs‬” 2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU-52NGkoVyMPsOGj7dZKML_mgTAEqnVkluf-e7PasqzSHn_v4</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJkFWj4O2eUbf2tV_MaDb15pifYSAFO8-RVYyUjE8DWxXyVlA=mo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>확률이 개 사기인 게임 70개 10% 넘는데도 전부 쏘나기 맞음 그럼 0.7% 진짜 개사기입니다 택진이 사기쳐서 운영합니까?' 이딴 도박 않한다 망해라 인간들아 사기꾼들</t>
+          <t>하아 역시 돈슨 뉴비배척패치 잘봤습니다 잘먹고 잘사세요</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>1.8.85a</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" s="2" t="n">
-        <v>45530.79569444444</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것
-같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록
-하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우
-문의하기를 이용 해주시기를 바랍니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>45531.65340277777</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>1.8.85a</t>
-        </is>
-      </c>
+        <v>45530.23782407407</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1537,55 +1378,43 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>6f7e1528-a27f-4c4a-8995-3ba6472ff4b6</t>
+          <t>86ff61f4-51f0-4f7d-8a1e-a097ae9174e1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>정배경</t>
+          <t>더위</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWQkpwO2diCC3Wk4GlJP6usUy2bmLRQvU6fjfYZkGED_WBZVfwg</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLY_R0TchOtGpW5jAUsA3vy_tzBIy16SJ0-bLHR-QalY1CLTA=mo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>왜 이러는거죠?? 서버접속중 에러뜨는데요 ㅠ</t>
+          <t>찍먹하기엔 좋음</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45529.65173611111</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-게임 접속이 가능하지 않아 리뷰를 남겨주셨네요.
-빠른 도움을 드리고 싶지만, 죄송하게도 리뷰 답변으로는
-상세한 도움을 드리기 어려우니 번거로우시겠지만
-plaync 고객지원으로 문의 접수 부탁 드리겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>45530.4420949074</v>
-      </c>
+        <v>45530.16283564815</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -1595,55 +1424,43 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>00fd77b1-263f-4aec-b043-3f64881c0845</t>
+          <t>26f29e6c-a317-4314-9761-f2fb069e9045</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Depo</t>
+          <t>김대준</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKGzie52sB6WDQ7Hna5NwQqzfmURxr76cNHuMfhGw2jsTsqfw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK0Nz6_yP-DydlV5xwXAJMUh_3Z3hrsdMbThEbxETLd7o-RFMY=mo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>오픈부터 7년간 플레이함. 내 게임생에서 리니지가 그래도 최고였음. 사행성, 과금유도 때문에 별 하나 뺌. 보완해서 VR로 출시되면 다시 돌아올 예정.</t>
+          <t>굿굿굿 굿이에요</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.8.15a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45528.5856712963</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M을 이용해주셔서 대단히 감사드립니다.
-보다 만족하실 수 있는 서비스 제공을 위해
-항상 최선을 다하는 리니지M이 되도록 더욱
-노력하겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>45528.60104166667</v>
-      </c>
+        <v>45529.74712962963</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1.8.15a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -1653,48 +1470,45 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>fcde8b5c-64e6-41fb-8c5e-b786e9e5afc1</t>
+          <t>1f9d5366-8943-4618-b02d-d7bc6bcefb6c</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>양원주</t>
+          <t>혼난다</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocK0oMnZtg5B9M3uV-XJYYur8YH1SrRuwvLV7D_-H0kwgeo2AA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJkpkqRfGYNrBRdh8zADHDGQrAYfByVzdClwz0KADicgfZRyw=mo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>용량 아까움</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
       <c r="I23" s="2" t="n">
-        <v>45526.51288194444</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것 같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록 하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우 plaync 고객지원을 통해 문의하기를 이용 해주시기를 바랍니다.</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="n">
-        <v>45526.70175925926</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+        <v>45529.4183912037</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1702,22 +1516,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>418f3c71-9bbe-4af4-b445-a9fe9140991f</t>
+          <t>223b3dc2-f6df-4e12-a3d8-f31a332fba1f</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>언제나</t>
+          <t>溫世瑛範</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVSMtKdBJSPqTXsedtdj3DfHOGJMMvcaal5M9ts1c3kws7Nu9MJ</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVsOIgCeKIkk11t8sPWTDAwR10URcesY99qpoZQlZHjTvxYXJl-3w</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>전화번호가 바뀌어서 인증을 못하고 있습니다 어떻게 해야 하나요?</t>
+          <t>좋아요 한번 해 보셔</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1726,36 +1540,13 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>1.8.85a</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" s="2" t="n">
-        <v>45526.38894675926</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-말씀해주신 부분은 죄송스럽게도 리뷰를
-통해서는 상세한 확인이 가능하지 않습니다.
-다소 번거로우시더라도 plaync 고객지원에서
-문의하기를 통해 관련 사항을 전달해주시면
-필요한 도움을 드릴 수 있도록 노력하겠습니다.
-안내해드리는 내용을 참고하시어 원만히 해결
-하시길 바랍니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="n">
-        <v>45526.58146990741</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>1.8.85a</t>
-        </is>
-      </c>
+        <v>45529.41148148148</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1763,37 +1554,45 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2715f2d7-1b21-476e-914e-c23e8d9537e5</t>
+          <t>5ae39a2b-7119-4891-9353-7ecd2f68e323</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>스타크아리아</t>
+          <t>팡팡</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ0yvsiIgEMBcm3gxB9M3kyzgUzZMR9hmZKbz_MUql_eUCqIw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjV3j_I8vQbtZL4gy5liVXd3pSbUkO1_MYDF_OjfUZ-JUZP6Bofu1w</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>대단해</t>
+          <t>다시 시작한 확장 70은 금방이군</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
       <c r="I25" s="2" t="n">
-        <v>45526.24747685185</v>
+        <v>45529.34478009259</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1801,37 +1600,45 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7a823abe-012f-44d1-9dd6-f36a264514db</t>
+          <t>b061cef8-5ec2-4bed-a485-6d1dd3aa09d8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ᄆᄆᄆ</t>
+          <t>강성근</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKO8dscn-5KWelmQGrst6-ieljDBv_4PFiYFdsFx-NYnLV-3aw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKwHV2zh9j8km2j-GGzKsvelEIGNju7xNDsdaLoTcWNZufESg=mo</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>암적인 겜</t>
+          <t>굿베리군</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
       <c r="I26" s="2" t="n">
-        <v>45524.02061342593</v>
+        <v>45529.22827546296</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1839,43 +1646,53 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>b1abb29e-abb6-4dc7-aedc-0304a99e833a</t>
+          <t>3f7fa299-2ed1-42a4-acae-853f9fe9a95e</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>독종</t>
+          <t>김도현</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKwYp15f9jLan3bBKcu7FomNCIxB4sHpXmv_kOhwvBvN1xUVw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIZV_8rG7L7iL9XJ7iDWfXWmAmvsgiwglj7BzfWeZ9wZd-mUg=mo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7주년 되니 이제 망겜 개나소나 다막피 돈쓰라고 아주 대놓고 패키지 팔기 ㅋㅋ 난 이제 접고 다신 안한다 엔시게임망게임</t>
+          <t>오랜만에 던파를 하니까 옛날 pc시절도 생각나고 좋네요 너무 재미있습니다</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45523.94804398148</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>45529.15993055556</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+재미있게 플레이하고 계신다니 정말 뿌듯합니다.
+항상 재미있게 즐기실 수 있도록 최선을 다해 노력하겠습니다.
+많은 관심과 성원 부탁드립니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>45533.20983796296</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -1885,43 +1702,43 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>a86893d5-6e93-4e4b-acb0-1f297cf410dc</t>
+          <t>d67943d2-4f47-47b9-8579-f9cff6471e6a</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>똑딱똑딱</t>
+          <t>김경준</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXCZqvJMZ6VJWJPN6f6HdhoZdOGtP3rUAThza8dh4K2xDuM1Sad</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJdWq-W2XwOnFP8Dukj_4jflAYSylerfyNAXPLb745a9U6hsg=mo</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>예전에 nc 아뒤로 이메일 로그인했었는데.. 통합 아뒤 넣는거로 바뀌고나서.. 별짓다하고 인증 다해도 찾을수가 없네.. 그냥 케릭 버린다.. 걍 안할께.. 짜증..</t>
+          <t>가가가가ㅏ가가가가가ㅏ가가각가</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45523.88282407408</v>
+        <v>45528.93542824074</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -1931,62 +1748,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7c2799bd-b7d8-46c9-96a9-9417b62f1659</t>
+          <t>c17aa286-0dd8-44ac-a4b9-dc1581e95b83</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>M Q</t>
+          <t>강현배</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXoR34kBOJbdUcDxzB8DaOnsnqXtcn7TetKwSlWlJUKxXTWg4g</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ77DLEYezPSIYwcZ1Ow3mQWm0wXi6lYeM7-IzZFnrtzIyvcA=mo</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>접속대기중 비정상적인요청이라고 뜨면서 강제종료가되는데 어떻게해야하나요?신섭임</t>
+          <t>돈슨 조작겜 메이플 다음 던파 에휴 돈슨 안망하냐 뉴스에 한번만 더 나오면 주가 폭락 될텐데</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>1.8.85a</t>
-        </is>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" s="2" t="n">
-        <v>45523.00232638889</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님 리니지M 실행이 원활하지 않아
-리뷰 남겨주셨네요.
-이용에 불편을 드려 죄송합니다.
-해당 내용은 리뷰를 통해서 확인이 어려운
-부분입니다.
-해당 현상이 지속된다면 번거로우시겠지만
-해당 내용을 확인 할 수 있는 스크린샷과
-상세 내용을 기재하셔서 plaync 고객지원으로
-접수 부탁 드립니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="n">
-        <v>45523.40899305556</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>1.8.85a</t>
-        </is>
-      </c>
+        <v>45528.51199074074</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1994,49 +1786,45 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>d40715eb-8702-4bc2-a56c-3fe90c4dc73b</t>
+          <t>55dce437-008a-4aff-b267-60798f05ae49</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>초이반스</t>
+          <t>박현진</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJdjzORD5gDtdTK7T5MUNNUDKQLlyTAmf1k2HFJwuOcaOJdpw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ0BnGzFa2HMJuOoUP_SxB0JTU0kLwB1TjWBVgqgjehadRp6Q=mo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>돈빨겜</t>
+          <t>차막혀 요ㅜㅜ</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
       <c r="I30" s="2" t="n">
-        <v>45522.42934027778</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-저희 게임이 고객님께 즐거움을 드리지
-못한 것 같아 죄송스러운 마음입니다.
-고객님께 기쁨과 즐거운 컨텐츠를 제공할 수
-있도록 노력하는 리니지M 되겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="n">
-        <v>45522.6415625</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
+        <v>45528.38497685185</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2044,57 +1832,55 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>969f9108-a00e-40c1-8d52-9c11975c648a</t>
+          <t>dcfbef5c-705c-4af4-ba52-e706191372ff</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>조인호</t>
+          <t>키프</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocL3HfHVsWu8IXvfQg1iiMdp_hJRTVA39rLgTaUeLSSgyC0ceA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWpCCZbpCcMceOTaFnv0KFW6gqUPw17qMgQOm2OTQonSutQr8ul</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>재미있어요 ^^</t>
+          <t>솔직히 게임의 재미,흥미는 둘째치고 모바일게임이면 모바일로만 할 수 있으면 좋겠습니다 공식적인 pc버전까지 있다보니 대부분 유저들이 pc로 즐기는데 이게 모바일게임인지 pc게임인지 모르겠네요 정체성이 없어요 특히 컨트롤이 중요한 결투장같은 경우엔 모바일로 아무리 잘해봐야 pc키보드 컨트롤 절대 못따라갑니다 이럴거면 pc던파가 버젓이 있는데 뭣하러 모바일을 따로 만든건지 당최 이해가 안되네요; 모바일게임은 말그대로 모바일게임입니다</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45521.89359953703</v>
+        <v>45527.51998842593</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M과 함께 즐겁게 플레이하고 계시다니 정말
-기쁜 마음입니다.
-고객님께서 남겨주신 리뷰를 잊지 않고,
-더욱 발전해나가며 리니지M만의 특별한
-매력을 보여드릴 수 있도록 최선을 다하겠습니다.
-감사합니다.
-</t>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+소중한 의견을 남겨주셔서 정말 감사합니다.
+바쁜 시간을 내시어 남겨주신 리뷰인 만큼 꼼곰히 확인하고 참고하여
+더욱 쾌적한 게임 환경을 제공해 드릴 수 있도록 최선을 다하겠습니다.
+이후에 게임 플레이 중 전하고자 하시는 의견이 있으시다면
+게임 내 고객센터 또는 공식 커뮤니티를 통해 접수 부탁드립니다.
+감사합니다.</t>
         </is>
       </c>
       <c r="K31" s="2" t="n">
-        <v>45522.37326388889</v>
+        <v>45529.25350694444</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -2104,57 +1890,43 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>d63c50ab-4048-4832-a3b8-384117f49af6</t>
+          <t>784278ce-e878-4fd3-922d-b49aa740f86f</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>미율</t>
+          <t>punch</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIFu19nOCiuWWoZN09q_HNH-KmnXCeuCs6jOTKGWWkvjv4NNQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK6lhJ04wajeVRf2xxoMfUONt4enh9MVup3pqHwMp7mI2VypQ=mo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>가챠의 극한 수십억은 투자 해야한다! 시작도 하지마.</t>
+          <t>최악의 없뎃기간 최악의 이벤트 최악의 패치방향</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1.5.7a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45520.82649305555</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께서는 게임의 성장과 앞으로의 즐거움을
-위해 보탬이 되는 소중한 리뷰를 남겨주셨습니다.
-다만 즐거움과 재미만을 드리지 못해 속상할 따름
-입니다.
-고객님의 뼈와 살이 되는 소중한 의견을 새겨듣고
-참고하여 성장해가는 리니지M이 되겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>45521.38252314815</v>
-      </c>
+        <v>45527.28416666666</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.5.7a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -2164,48 +1936,57 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>68b001dd-bea4-43d1-a473-0d6a19f97d74</t>
+          <t>6a3b3253-e600-4826-8098-6ce9595a711f</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>정성식</t>
+          <t>DH LEE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJMG-mVijZ_HcE8T6vAhDLD1iL019fzoWCEVddSQj_vvt5l6A=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUELD9sl8EPXUP0csORfjW443ENXXzOfj-IPQa2w9rVbku2J1Gl</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>진짜. 생까지 말고 막피부터. 정리하세요. 데포1섭. 게임하기 싫어지네. 자기가 강하고 초보 유저들까지죽이는건 아니잖아요. 말좀 들어요 생까지말고. 케릭을 죽이면. 그케릭. 부당한 사유를주던가해요. 한달정지라던가. 진짜못해먹겠네</t>
+          <t>8월 23일자 리뷰 시즌이 진행될수록 피로감 개선이라는 명목으로 이것저것 패치하는데 피로감 개악이지 개선이 아님 보상도 계속 반토막에 반토막을 반복하니 이젠 4만원에 육박하는 패키지를 구매해도 오픈 초기에 구매했을때에 비해서 가치가 거진 10%정도로 떨어진듯 피로감은 피로감대로 쌓이고 플레이 경험(던전 및 레이드 클리어 보상 등) 퇴화 시즌마다 손바닥 뒤집듯 바뀌는 운영방침 (이를테면 배럭 육성 권장 &gt; 배럭 육성 페널티 부여 &gt; 배럭 육성 권장 &gt; 배럭 육성 페널티 부여) 피로감과 더불어 배신감 미쳤음 갈수록 창렬해지는 현금재화 패키지 회사 내부사정때문인지는 몰라도 이번 업데이트는 원래 한번에 내놓았어야하는 업데이트였다고 생각함 게임 플레이 이틀만에 여기저기 삐덕대는게 대놓고 보임 거기에 이제는 게임 만드는 놈들이 게임이 어떤 식으로 굴러가고있는지 전혀 이해를 하지 못하고 있는 듯한 몰상식한 패치와 운영을 고집하는데 그냥 이쯤되면 네오플이 문제가 아닌가 싶다</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
       <c r="I33" s="2" t="n">
-        <v>45520.74081018518</v>
+        <v>45527.2385300926</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것 같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록 하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우 plaync 고객지원을 통해 문의하기를 이용 해주시기를 바랍니다.</t>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+우선 게임 이용에 불편을 드린 점 진심으로 사과드립니다.
+이벤트 진행 중 일부 모험가님들이 시스템을 악용하여 재화를 부당 획득하는 정황이 확인되어,
+현재 지속적으로 전수 조사 후 조치를 진행 중에 있습니다.
+추가적인 악용 사례와 조치 사항이 있다면 공식 홈페이지를 통해 안내해 드리겠습니다.
+더욱 원활한 환경에서 플레이하실 수 있도록 노력하겠습니다.
+감사합니다.</t>
         </is>
       </c>
       <c r="K33" s="2" t="n">
-        <v>45521.38206018518</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
+        <v>44928.26047453703</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2213,37 +1994,45 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11f79b99-9c8d-4b55-9dfb-7b7ffb5a64b8</t>
+          <t>7b4b88bd-28ba-4e9c-aa3e-9f0177705aee</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SUNG LEE</t>
+          <t>송승환</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVE1EYWxMipNmeL-XHtUZYR3wBfW70-SennYiY-gj1j_jJ5G6TZ</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJd6juVhHHd7WM0IYvdShvwoF8Chm17odBjhgZj2OUOxJH33w=mo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>리니지는 질병이다</t>
+          <t>재밌네요 그래도 pc보단 덜</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
       <c r="I34" s="2" t="n">
-        <v>45520.45085648148</v>
+        <v>45527.04248842593</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2251,55 +2040,54 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>b4b1bc83-7dfd-41de-a6b0-28271bc90eba</t>
+          <t>c1d9d47a-a401-41e9-a8f6-b5a2a8ce50ab</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>삽이</t>
+          <t>고건</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKxhR84R5a1QzDtyeNnuOVkyT6BTS1apiDSYEYtSPrz4QNGbio=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKAizNsfJI89I7OU1bYRi5y1yaMzL6f2MQ_JPuXZLSQSF59OQ=mo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>돈만 밝히는 게임</t>
+          <t>초심은어디 갔는지 점점심한 과금유도와 억지스런 플레이타임늘리기 패치로인해 현재오히려 기존유저의이탈과 신규유입에장벽을 높이세우고있다.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45520.37144675926</v>
+        <v>45526.75009259259</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 소중한 리뷰를 확인하였습니다.
-바라시는 만큼 기대에 미치지 못한 것 같아서 참으로 마음이 무겁습니다.
-고객님 게임 만족을 위하여 늘 애쓰도록 하겠습니다.
-언제라도 궁금한 사항이나 의견이 있을 경우 plaync 고객지원을 통해 문의하기를 이용 해주시기를 바랍니다.
-</t>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+던전앤파이터 모바일을 즐겨주시고 소중한 리뷰도 함께 남겨주셔서 감사합니다.
+모험가님께서 많은 관심과 애정을 보내주시는 만큼,
+더욱 쾌적한 게임 환경과 좋은 서비스를 제공해 드릴 수 있도록 최선을 다해 노력하겠습니다.
+오늘도 던전앤파이터 모바일과 즐거운 하루 보내세요.
+감사합니다.</t>
         </is>
       </c>
       <c r="K35" s="2" t="n">
-        <v>45520.39674768518</v>
+        <v>44890.23489583333</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -2309,56 +2097,53 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>b1634d06-3b93-4778-a022-2b6bb2295839</t>
+          <t>9a694234-a84d-4cc4-b754-1974c8b98aa4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>블루라군</t>
+          <t>스미코</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUmC4jO0WZdzHaw31KQeL2If1ua8G2ipLowfPRhxR0AyDPO8a2u</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLD3uO93adrsmQn9UyRN6MAJHxeUv341_40uUNiB8Vhl03hlA=mo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>자동귀환 시스템좀 추가해주세요. 피설정으로 자동귀환설정 옵션 하나넣으면되는데 어렵나요 타게임은 잘만해주던데 막피때문에 중립유저로서 게임을 할수가없네요 과금유저를 위한업데이트만 하시지말구요 운영이 잘됨을 느끼게 해주세요 이런것도 개선이되지않는다면 타게임으로 갈게요 수고요</t>
+          <t>렉때문에 못해먹겠네 망겜다됐네</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45519.66637731482</v>
+        <v>45526.63021990741</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-말씀해 주신 내용은 plaync 고객지원 문의하기를
-통하여 건의사항으로 한 말씀 부탁드립니다.
-즐거운 컨텐츠를 제공할 수 있도록 노력하고
-발전하는 리니지M이 되겠습니다.
-감사합니다.
-</t>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+많은 애정을 가지고 기대하셨던 만큼, 아쉬운 마음이 크실 것 같습니다.
+이곳에 남겨주신 의견들은 빠짐없이 귀담아듣겠으며
+더 나은 환경을 제공할 수 있도록 최선을 다하겠습니다.
+감사합니다.</t>
         </is>
       </c>
       <c r="K36" s="2" t="n">
-        <v>45520.39489583333</v>
+        <v>44666.68950231482</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -2368,22 +2153,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01fcc1d3-080f-4248-b522-6588d3dfbd8a</t>
+          <t>7e65ac24-1e29-47b1-979c-7de7028d9b21</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>김형민</t>
+          <t>김태우</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJpDXuvIFI___gdOOPLwv-T2JGRXUpT9DaLJhrH7eveD95ezw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJTnQqHLFqaPCEO7djPg-wDiE-_sLxLJ8FgGeLzuhSWIzq31w=mo</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>좋아요~</t>
+          <t>굿굿ㅈㅂㄱㅂ?ㅂㄱㅌㄹㄱ</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2394,30 +2179,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45519.05550925926</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M을 이용 후 너무나 즐거우셔서
-정말 영광입니다.
-고객님께 보답하기 위해 보다 더 나은 컨텐츠
-제공으로 만족감을 드릴 수 있도록 노력하는
-리니지M이 되겠습니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>45519.43105324074</v>
-      </c>
+        <v>45526.5834837963</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -2427,51 +2199,45 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>918ce14a-35a7-43fe-85d3-fbc51d54321b</t>
+          <t>c3857e8a-926a-4100-a5e7-55a386807be6</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>빡대가리</t>
+          <t>조cksgml</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLclhuHlg56GPrE519kgJC7JH-fI4MRJZIHceI7-VYhwaI76Q=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocInxBfG0cxjpxnQWzi6MyGjkeapnN_sPOikSzjSGRctAVRoVA=mo</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>용사패키지 받았는데 왜 신서버를 안열어줍니까 용사 그거 써야하는데 받는거는 받게해주면서 서버를 쳐 잠궈놓으면 하라는거냐 ㅇ하지말라는거냐 도대체 무슨 생각으로 일을 하는건지 궁금하다</t>
+          <t>제미</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
       <c r="I38" s="2" t="n">
-        <v>45518.64634259259</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-말씀해주신 부분은 죄송스럽게도 plaync
-고객지원에서 문의하기를 통해 관련 사항을
-전달해주시면 도움을 드릴 수 있도록 노력
-하겠습니다.
-안내해드리는 내용을 참고하시어 원만히 해결
-하시길 바랍니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="n">
-        <v>45519.43064814815</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
+        <v>45526.47950231482</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2479,55 +2245,43 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4d4eee1a-7e49-4d59-aa9b-40c01b8ba95d</t>
+          <t>8e1bbbf1-304d-4e31-9078-7ca9a7658600</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>김주연</t>
+          <t>호창이</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLtrCa3iZmoMri--KTViXr1QrmAqQCLkdkZWTPYfZWVTIVuQA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKVgZ0mItv6S9k3Gi767hFv5ZDhqDyNT1GOXESfGewJdBgEEg=mo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>아이고</t>
+          <t>재밌음</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45518.48680555556</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리뷰 해주신 의견에 귀 기울이며 겸손하도록
-더욱 노력하겠습니다.
-언제나 고객님 만족을 위하여 애쓰고 있으나
-아직도 부족한 것 같아서 마음이 무겁습니다.
-고맙습니다</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="n">
-        <v>45519.42920138889</v>
-      </c>
+        <v>45526.44450231481</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -2537,58 +2291,43 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>a251be6d-b01a-4100-9f7c-7f00fc46a982</t>
+          <t>07f9b813-7e20-4efb-aed2-42909211383a</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>원사장</t>
+          <t>유진우</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjV45KHFuoZ1LJYOphZwgfaR1ZT77Ib0qg7EthN5i1cZNRrl3Ro8bA</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJvFV1m7aHFbcCX2BT2H7OUCLfBcx6F_NhQS6uF7NsX7SBbXQ=mo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>●▅▇█▆▅▄▇ 법사 클래스 케어좀 하세요</t>
+          <t>진짜해봐야알수있음개재밌음</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45518.39746527778</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께서는 개선사항에 대해 리뷰를
-남겨주셨네요.
-남겨주신 리뷰를 통해 더욱 즐거운 게임 환경을
-제공해 드리기 위해 최선을 다하고있습니다.
-해당 내용에 대해서는 plaync 고객지원
-문의하기를 통해 남겨주시면, 적극 반영에
-노력하도록 하겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="n">
-        <v>45518.49605324074</v>
-      </c>
+        <v>45526.35542824074</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -2598,60 +2337,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0f11a52f-afba-452f-acbb-d4f4ead73188</t>
+          <t>583cdbc9-88cc-43da-9ea5-bb7855deb8b5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>한동훈</t>
+          <t>Michael choi</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLMjrfWrguQGva5LhwS1bqV0aL85xhDUGESR9BwKwARJW1Hhw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKOn_IEAR-M0BzFB5GNXXfAD8ruNsqrpJ_eMuk4evgcczYG7Q=mo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>점점 재미가 없어짐</t>
+          <t>사령술사.. 컴퓨터로 열심히햇는데.. 사령술사는안나오나요..</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>1.8.84a</t>
-        </is>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" s="2" t="n">
-        <v>45518.30677083333</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님의 기대에 미치지 못한 것 같아서
-마음이 무겁습니다.
-만족스럽게 플레이 할 수 있는 게임이 되기
-위하여 늘 애쓰도록 하겠습니다.
-궁금하신 사항이나 건의사항이 있으실 경우
-언제라도 plaync 고객지원 문의하기를 통해
-남겨주시기 바랍니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="n">
-        <v>45518.49233796296</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>1.8.84a</t>
-        </is>
-      </c>
+        <v>45526.27706018519</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2659,58 +2375,43 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>f2815179-d3c7-467c-889f-83b66f3bedb3</t>
+          <t>ef4d791c-eb86-4c3d-984b-302fae421f3a</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>신용환</t>
+          <t>금토끼</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocL1o-rh2BMjoDwfpMYAr2Spe2_06iABDpMW0QUjXmAuBE8zIQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVAAK-EBkrwI9oCukhSs4bkBAmKkUr118dKiVw4ke2BnrIsg5fC</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>뭔 이딴게임이 있냐 허구헌날 이벤트가 패키지로 돈빼먹을 생각뿐이 못하냐 내가 이게임을 시작한게 잘못이지 절대 이런게임 하지마세요 진심 노답 쓰레기 게임 nc8</t>
+          <t>뉴비가 시작하기에는 일단 재밌음 옛날 느낌도 나고 굿굿 아바타랑 이것저것 챙겨주는 것도 훌륭함</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45518.29766203704</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M을 통해 고객님께 즐거운 경험을
-제공해 드리지 못한 것 같아 마음이 무겁습니다.
-앞으로 고객님께서 만족하실 수 있는 게임이
-될 수 있도록 노력하는 리니지M이 되겠습니다.
-궁금하신 사항이가 건의사항이 있으실 경우
-언제라도 plaync 고객지원 문의하기를 통해
-남겨주시기 바랍니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="n">
-        <v>45518.49133101852</v>
-      </c>
+        <v>45526.25008101852</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -2720,59 +2421,43 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>faf7ced8-cbd7-44cc-a180-501319ec32fe</t>
+          <t>30310683-7684-45a2-99f3-2de624a24f47</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>최상우</t>
+          <t>오호호아니</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIsaeaDp_GUvd5_TZvogUZ92SzpNCplWiUv8TDGFXdaNGuKBw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKebSd-0bAxrFpmL-xpIr85P8lsrPsFjdG799MPwYSJjXeE0Q=mo</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>다시 복귀해서 재밌게 플레이중 입니다. 영웅변신 영웅인형 영웅성물 영웅스킬이 가지고싶습니다ㅠㅠ 앞으로도 더욱 흥행작이 될수있도록 기원 합니다!!</t>
+          <t>할만하다 던파 모바일 찍먹하기 좋네요</t>
         </is>
       </c>
       <c r="F43" t="n">
         <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>24.4.1</t>
         </is>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45518.20717592593</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-만족스럽게 플레이해 주신 것 같아 굉장히
-뿌듯합니다.
-현재에 안주하지 않고 더욱 즐거운 경험을
-드리기 위해 노력하는 리니지M이 되도록
-노력하겠습니다.
-궁금하신 사항이나 건의사항이 있으실 경우
-plaync 고객지원 문의하기를 통해
-문의해 주시길 바랍니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="n">
-        <v>45518.48962962963</v>
-      </c>
+        <v>45526.19962962963</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1.8.85a</t>
+          <t>24.4.1</t>
         </is>
       </c>
     </row>
@@ -2782,54 +2467,43 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>f3b7da19-2442-4895-9209-163f8b619f85</t>
+          <t>2db88c38-cb65-4d27-98bd-dd948fffdb43</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>이k88</t>
+          <t>김상환</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIRZfIoUq8M42HUhyglTOLRAxCYQ6JTQvBXxOaSN0T4lPMcnQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJW20B2D1DoieQZUZrpKY_P-ZvPI6thJlzOmVZNUJ5G1NuMcA=mo</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>추억의 게임</t>
+          <t>재밌게하고 있는데 업뎃후에 왜케서버응답문구가뜨죠??</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45516.92576388889</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-소중한 리뷰 남겨주셔서 감사합니다.
-고객님의 의견을 항상 경청하며 더 커다란 즐거움으로
-보답해 드릴 수 있도록 최선을 다하는 리니지M가 되겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="n">
-        <v>45517.38061342593</v>
-      </c>
+        <v>45526.12342592593</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -2839,56 +2513,54 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>f4d3d548-6cdc-416d-b807-5f05e065108b</t>
+          <t>32820620-98fc-4faf-8700-253b31b3efec</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>정해광</t>
+          <t>MIN JUN</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIuu65VCrhM2oNZgvrsz_DZaiMi-5gz7yey3XUKnPXB-umrqg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIpEPuQqrdMJlVNQhRw49r5LEutBgQEROX7c9sYEZf0HnD0gws=mo</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>사람을 거지로 만드는 도박</t>
+          <t>진짜 모든 게임을 다 해봤지만 던파모바일만한 게임이 없는것 같습니다. 장비 가치보존 및 무소과금들도 시간만 들인다면 즐기기 좋다는 점입니다.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45516.81739583334</v>
+        <v>45525.99866898148</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께 만족스러운 게임이 되지
-못한 것 같아 마음이 무거울 따름입니다.
-즐거운 컨텐츠를 제공할 수 있도록
-노력하고 발전하는 리니지M이 되겠습니다.
-고맙습니다.
-</t>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+게임을 재미있게 플레이해 주셔서 정말 감사합니다.
+리뷰를 통해 보내 주신 관심과 기대에 충족할 수 있도록 더욱 노력하겠습니다.
+이 외에도 플레이 중 전하고자 하는 의견 있으시다면
+언제든 공식 커뮤니티 또는 게임 내 고객센터를 통해 말씀 부탁드립니다.
+감사합니다.</t>
         </is>
       </c>
       <c r="K45" s="2" t="n">
-        <v>45517.3759375</v>
+        <v>45528.26547453704</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -2898,56 +2570,43 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>64d8bb48-55db-4481-b0b1-924556ba07e5</t>
+          <t>a0e7da3f-7594-4f87-bf76-cba5a3951442</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>서인</t>
+          <t>이궁</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKiL_dECFrsdjE35LqooUYXifil8b4Guc6SvtWPaTeJ9WxWsQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ8oQ6LJbhI5l6C_E6oNfdOECiACWNk2U93138k4TDxXvpfeQ=mo</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>재미있은</t>
+          <t>이중강화 있음</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1.8.13a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45516.37978009259</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-남겨주시는 리뷰에 감사드립니다.
-소중한 의견에 귀 기울이며 게임 만족감을 위하여
-최선을 다하겠습니다.
-아덴월드의 여행 모험에서 행운이 함께 하시기를
-바랍니다.
-감사합니다</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="n">
-        <v>45516.5183912037</v>
-      </c>
+        <v>45525.98457175926</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1.8.13a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -2957,50 +2616,56 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>f6a6e26c-c69d-4497-b615-225b31cd1605</t>
+          <t>f8bb1f18-6a59-4506-b4dc-fa51044faff5</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>적혈귀분신만천벌</t>
+          <t>장인정신</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUonXEsIFrAOTDx_k_AYZdft_48ur94xekkFEA17wqAybu2ME-H</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXBZd2IJrSsrYbnJYBJNMSwj7gmn5WaM79D4R425lCpm_iGqxHd</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ㅋㅋㅋㅋㅋㅋㅋㅋ난 소고기 먹을란다 개고기 많이들 드셔</t>
+          <t>2년이 지난지금 재평가해보자면 적당히 라이트하게 즐기기 괜찮음. 성장단계에서는 시간투자가 좀 필요. 딱히 과금 없어도 되긴하지만 적당한 과금은 정신을 이롭게함ㅋ</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
       <c r="I47" s="2" t="n">
-        <v>45514.98041666667</v>
+        <v>45525.96809027778</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-만족스럽지 못한 운영으로 인해 실망감을
-안겨드린 것 같아 마음이 무겁습니다.
-고객님께서 남겨주신 소중한 의견을 바탕으로
-더 많은 사람이 함께 즐길 수 있는 리니지M이
-되도록 항상 최선을 다하겠습니다.
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+게임을 위한 소중한 리뷰를 남겨주셔서 진심으로 감사드립니다.
+리뷰를 통해 전달 주신 말씀을 잊지 않고
+재미있게 게임을 즐기실 수 있도록 끊임없이 노력하겠습니다.
+앞으로도 많은 관심과 응원 부탁드립니다.
 감사합니다.</t>
         </is>
       </c>
       <c r="K47" s="2" t="n">
-        <v>45515.63284722222</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
+        <v>44650.05674768519</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>29.4.0</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3008,58 +2673,54 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>cb6592e2-8a0d-4661-a172-3f7d2b88b97d</t>
+          <t>ac32e73a-f8de-4d12-a2ba-0f99d31b733e</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>신대현</t>
+          <t>배정미</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIa9F-PrKC9xhL2xu75RCUAVeDpD56H4-HEtJJztAt3J31TEw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJsbWlaNJaU0D6BxhQ93wWDBpwJAdqGCzquf7VGZ-w4eegYnQ=mo</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>인증개같음</t>
+          <t>하..</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1.7.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45514.89207175926</v>
+        <v>45525.89877314815</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-인증을 진행에 어려움을 느껴 리뷰를 남겨주셨네요.
-고객님께 빠른 도움을 드리고 싶으나,
-죄송스럽게도 말씀해주신 사항에 대해 상세한 확인이
-가능하지 않은 점 양해 부탁드립니다.
-번거로우시겠지만 plaync 고객지원 문의를 통해
-상세한 사항을 남겨주신다면 면밀히 확인에 도움을
-드리겠습 니다.
-고맙습니다.</t>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+게임을 즐겨주시고 애정 어린 말씀도 함께 남겨주셔서 감사합니다.
+앞으로도 보다 쾌적한 게임 환경과 서비스를
+제공해 드릴 수 있도록 최선을 다하겠습니다.
+오늘도 즐겁고 기분 좋은 하루 보내세요.
+감사합니다.</t>
         </is>
       </c>
       <c r="K48" s="2" t="n">
-        <v>45515.63262731482</v>
+        <v>44714.02767361111</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1.7.85a</t>
+          <t>29.4.0</t>
         </is>
       </c>
     </row>
@@ -3069,22 +2730,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4a8aeb2c-9aed-4f43-9eec-f9b664abdf17</t>
+          <t>3763add7-99dc-423f-ab97-51adbf1f7a0e</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>정임상</t>
+          <t>김동영</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ9C9tjhP788D8UUulWeYBuwijFNg6Le7egy8gDanzRWp8s=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUZJ2UkTaJc5rqStUW14Jvk7B5nl_TQ1SGuKtosy-rtKlDwwsu3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>놀기충분합니다</t>
+          <t>80렙가자</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3093,35 +2754,13 @@
       <c r="G49" t="n">
         <v>0</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>1.8.84a</t>
-        </is>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" s="2" t="n">
-        <v>45514.65832175926</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-저희 리니지M을 사랑해주셔서 감사합니다.
-항상 고객님께 즐거움과 기쁨을 안길 수 있도록
-노력하겠습니다.
-고객님의 앞 길에는 항상 행운이 가득하기를
-기원합니다.
-고맙습니다.
-</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="n">
-        <v>45514.66987268518</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>1.8.84a</t>
-        </is>
-      </c>
+        <v>45525.89336805556</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3129,55 +2768,43 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4b5e9d45-23fb-4d35-9440-941353d45319</t>
+          <t>441a8b9b-f419-4f94-b473-e3f1d8372057</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>배종표</t>
+          <t>냥냥</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVii45R38opxs4PvCL1xVrJz2eB8YI1RCbhxQ3aNjxGm3F8anvA</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLBm2DA4EV0aiGs1N1dk9xevz9UcWMXYuggYuhtLmGTWliBrw=mo</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>휴대폰 다운로드 받아서어요리소스느려어요</t>
+          <t>나도 삭제함. 생긴지 몇년이나 지났는데 핵도 못잡고 렉도 못잡고 밸런스도 그지같고. 이딴게임에 시간허비한 미친짓한 내자신만 한심할뿐..</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1.5.11a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45514.18552083334</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-소중한 리뷰 남겨주셔서 감사드립니다.
-리니지M을 플레이 해 주시는 고객님들께
-만족스러운 서비스를 제공해드릴 수 있도록
-최선을 다하겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>45464.66719907407</v>
-      </c>
+        <v>45525.79825231482</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>1.5.11a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -3187,58 +2814,43 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5c90ee75-8bbd-41a7-9506-c39c1125e419</t>
+          <t>2e5fb766-7095-46e3-842b-25a84fbeeebc</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>유영주</t>
+          <t>황토</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJKKJbl3Cro1hjeKlQhQo7ZxtQGluQhsPV_yXr71ZozcV5k0Q=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWN7FJd79uBRL1OpeJeTo6ScYioE5yeSgoBbPNXzVzvYSXrNOvn</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>야썩어문들어질 제작진 놈들아,오늘도 여섯번이나죽었다 이래서게임 해먹겧냐. 새로온사람들은 판단 잘해아돼요, 경험치가 오르지 않아요 경험치를 까먹거나 돈으로 경험치를복구 해야합니다 신중히선택 하서요</t>
+          <t>재밌어요</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45513.93957175926</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>리니지M REQUIEM: 안식의 서곡
-안녕하세요. 리니지M입니다.
-고객님의 소중한 리뷰를 남겨주셔서
-감사합니다.
-고객님께 바라시는 만큼 만족감을 드리지
-못한 것 같아 마음이 무겁습니다.
-고객님께서 만족스럽게 즐길 수 있는
-게임이 되기 위해 노력하는 리니지M이
-되도록 하겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="n">
-        <v>45450.36849537037</v>
-      </c>
+        <v>45525.6034375</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -3248,59 +2860,43 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>43b57a32-29ef-486b-ab84-dd491b1413f2</t>
+          <t>2d79f33a-bc35-424f-90b1-974ce34dd342</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>김진수</t>
+          <t>채명원</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ01o1VEGtlF_dQQn9ce7v8rrK9eRDhzBChynhNskZvQQqWqw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKQ_LVaXuNXbfCKb1Mi6422FMYhoxu_j1RyuE5dwV76oizGPg=mo</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>좋아요</t>
+          <t>ㅅ훃ㅅㄷㅇㄱ쇼</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45513.81505787037</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M을 즐겁게 플레이하시고
-리뷰를 남겨주셨네요.
-앞으로도 고객님께서 즐겁게 플레이
-하실 수 있도록 더욱 노력하는
-리니지M이 되겠습니다.
-궁금하신 사항이 있으실경우 언제라도
-plaync 고객지원 문의하기를 통해
-문의해 주시길 바랍니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="n">
-        <v>45514.40480324074</v>
-      </c>
+        <v>45525.22053240741</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -3310,59 +2906,43 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12569f8a-c2ac-40d8-8846-8863581bc4e3</t>
+          <t>d231af28-f0dc-421a-baf0-1b17e51a2221</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>후니동</t>
+          <t>ᄋᄋᄋ</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocL4_-7wDnoMzf0otBvkXIL_BP-h5-AC7EdKNpsOHXtm_GWjVQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLUgfFtBCF1XK02v0_kIZKHTP7SkX7VSnL7hKQ9t3KnmZtu9w=mo</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>이번 TJ복구권 영웅티 복구가없네요</t>
+          <t>갓겜</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1.4.31a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I53" s="2" t="n">
-        <v>45513.79802083333</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-해당 현상으로 불편함을 끼쳐드려 죄송합니다.
-말씀해주신 리뷰 내용만으로는 리뷰를
-통해 정확한 확인이 어려우므로 양해를
-부탁드립니다.
-지속적으로 동일한 현상이 발생하신다면
-번거로우시더라도plaync 고객지원 문의하기를
-통해 접수해주시면 고객님께 필요한 도움을
-드릴 수 있도록 최선을 다하겠습니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="n">
-        <v>45514.40526620371</v>
-      </c>
+        <v>45525.20568287037</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1.4.31a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -3372,37 +2952,45 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>cb6f0dec-3859-4cb4-975b-f1dc281e830b</t>
+          <t>3c41e68c-e8b4-4fdc-8b1b-251b15e5a4e8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>감귤</t>
+          <t>하건수</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU6owaz08Vf87CgFDTVrqOWpjpXm2v6w9vHFSqL32pcvLpPDig</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIkcgqU-F2otntt2rGU64TsY7S2PCTB2gvcZ0L_MoVcCftRYg=mo</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>절대하시면 안됩니다 대기열때문에 2-3시간 기다렸는데 비정상적인 요청이라며 저혼자 튕기고 다시 2-3시간 대기열 뜹니다 절대하지 마세요 Nc소프트는 무조건 망해야되는 회사입니다 유저를 기만하고 희롱하고 단순히 자기네 돈벌이수단으로만 악용하는 악질회사입니다 무조건 망해야됩니다 앞에선 안하겠습니다 하고 뒤에선 기존보다 더 심하게 유저들 등골 뽑아먹는 존재해서는 안되는 악질 반동회사입니다 차라리 양산형 중국게임하세요 중국게임보다 더 악질 Nc소프트입니다 니네 회사 망하는날 전국민이 광화문광장으로 나가서 만세삼창 할꺼다</t>
+          <t>재미</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
-      </c>
-      <c r="H54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
       <c r="I54" s="2" t="n">
-        <v>45513.59634259259</v>
+        <v>45525.07232638889</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3410,50 +2998,43 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>b76306b3-0cf4-47b9-8a17-41cc851c17b3</t>
+          <t>ca3e9918-e995-4af3-a79c-90763e118d92</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>류영범</t>
+          <t>HAa loding</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLULvG-KtlPiFFutHDiDGLkxiFez58dRZXV8nol18v629_GCw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUwP5VbpCSSUMFmhIUCox-FohJS1VWM9fsuvsBIQffmBwmQBveF</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>뇌신 케릭터 스킬 디크리즈 웨이트 스킬이 활성화가 되지 않아 문의 드려 봅니다 이 스킬이 뇌신만 그런건지 딴 케릭도 그런지 확인 조치 부탁드립니다 아 스킬 습득한것은 왜 재구입이 안되는지도 궁금하구요</t>
+          <t>재밌어요</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I55" s="2" t="n">
-        <v>45513.34693287037</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>안녕하세요. 류영범님! 원활한 게임 진행이 가능하지 않아 속상하셨겠습니다. ㅠㅠ 고객님께서 기재해주신 현상에 대해 확인할 수 있도록 하겠습니다. 다만, 확인 및 조치에까지 다소 시간이 지연되는 점, 고객님의 너그러운 마음으로 양해해주시길 부탁드립니다. 빠른 시일 내에 정상화 소식과 함께 고객님을 찾아뵐 수 있도록 최선을 다하겠습니다. 게임 이용에 불편을 드린 점, 재차 사과드리며 또한 원활한 운영을 위해 노력하겠습니다. (_ _
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="n">
-        <v>42944.19090277778</v>
-      </c>
+        <v>45524.96581018518</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -3463,22 +3044,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>aa4d024e-b70b-4657-a11a-03d5ff8a4726</t>
+          <t>10feb72e-1689-4e00-a8aa-40213bbe045b</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>조광훈</t>
+          <t>팔가로우</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJE5lecgJkPPJp0ytA0f5VZck9RpUTGH9W4H429TW2uS0WF=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXw-f-R_SvkmDj8T6-dnkQQ5kfxxxyNrDRVHqfweWN6vzUxQNc</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>굿</t>
+          <t>2차각성 기대할게요</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3489,32 +3070,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I56" s="2" t="n">
-        <v>45512.95274305555</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-힘이 되는 소중한 리뷰 감사드립니다.
-고객님의 기대에 충족 할 수 있도록
-노력하는 리니지M이 되도록
-최선을 하겠습니다.
-궁금하신 사항이 있으실경우 언제라도
-plaync 고객지원 문의하기를 통해
-문의해 주시길 바랍니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="n">
-        <v>45513.64072916667</v>
-      </c>
+        <v>45524.42315972222</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -3524,56 +3090,43 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>b74d8403-a81f-43a6-99f1-5f4216c96a76</t>
+          <t>d668b63e-1f73-447a-8b45-93603f04e983</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>잘살아보세</t>
+          <t>장세권</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIY--SuxuAZFvTmjiMg8-k_kbiMs16pQ-E3WSt33fFNOxSutA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKwL5Lne60iko5N7egYUbPLR6tUiur3pyvxkx2JG6-uiuYOFQ=mo</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>카지노보다 사행성 100배 더 심한게임, 인생 조지는건 순식간</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I57" s="2" t="n">
-        <v>45512.93340277778</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M입니다.
-고객님께 충분한 재미를 드리지 못한 것 같아
-너무나도 마음이 무겁습니다.
-남겨주신 소중한 리뷰를 통해 보다 더
-개선된 서비스와 즐거움을 드릴 수 있도록
-최선을 다하는 리니지M이 되겠습니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="n">
-        <v>45513.64101851852</v>
-      </c>
+        <v>45524.28231481482</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -3583,22 +3136,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>99ebcc3c-6ca6-436c-8b88-b319e5aaffd0</t>
+          <t>ad0c09c5-ea0e-44d1-bfa2-fe52557d4340</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>임정태</t>
+          <t>BTC세력</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVhi6-_muEHw2LnFCSP_poQ483fyAQyaoteGkyIkDhC3teNqbzD</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXcug9Vlk3BwH4h-o4GnH7N_C6lJE6tmtQz3v9-fjdOzBLDaWeq</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>이런게임이 없어요~~ 아재들에겐 최고조~</t>
+          <t>재밓ㅅ넹</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3607,29 +3160,21 @@
       <c r="G58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
       <c r="I58" s="2" t="n">
-        <v>45512.86652777778</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-즐거운 마음으로 리뷰를 달아주셨네요.
-고객님께서 칭찬을 해주신 만큼 더욱 더 개선해
-나가며 늘 새로운 이벤트를 준비하고 있으니
-앞으로도 많은 기대바랍니다.
-게임 이용 중 궁금하시거나, 다른 의견이
-있으실 경우 plaync 고객지원 문의하기를
-통해 남겨주시면, 확인 후 빠르게 도움을
-드리겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="n">
-        <v>45513.64061342592</v>
-      </c>
-      <c r="L58" t="inlineStr"/>
+        <v>45523.83826388889</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3637,37 +3182,55 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>59c0af6c-64a5-4ebd-bc0e-50d67e46b186</t>
+          <t>5b40a994-c23b-4bef-bcc0-bf0a3ec9f345</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>김인혁</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX1caQJZ2-DQQZM8cImlSE9muyEhk6t1ypujKJDglNhk7ctz7Zl</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJAC1KWfLciYh5WVWt5fS_-1OIsX7mQpmt27KpG1IegW-fgFtk=mo</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>도박 입니다. 신고번호는?</t>
+          <t>오늘 삭제했다. "중국에서 큰돈 벌고 있는 대형 게임회사의 배째라식 운영이 돋보이는 게임" 문제 해결에 대한 생각도 없고, 의지도 없다. 그냥 소싯적 추억팔이 했다 치고 다신 안한다. 솔직히 이젠 넥슨이란 회사자체가 싫어지고 실망스럽다. 내가 왜 내 휴대폰에 9GB 게임깔고 열받아야 하나?네트워크 개선 안할거면 왜 pvp를 만들지? 밸런스 개선도 안할거면 업데이트는 왜 하지? 서울한복판에서 네트워크 빨간색으로 400ms뜨는게 정상인가? 서버가 어디 남극에 있나? 뭔가 서로 상성이라던가 카운터라던가 이런거 생각도 안하는거 같고. 액션쾌감 콤보 개소리고 그냥 스킬남발이고. 데이터는 왜이리 많이 쳐먹는건지..그렇게 먹으면 끊기는게 말이 되는건가? 게임은 해봤나? 서민의 주머니에서 돈을 뜯으려면 뭔가 개선하는 시늉이라도 내야 하는게 맞다.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
-      </c>
-      <c r="H59" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
       <c r="I59" s="2" t="n">
-        <v>45512.65922453703</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+        <v>45523.16805555556</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+최상의 서비스와 재미를 제공해 드리기 위해 많은 노력을 했음에도
+만족하는 결과가 나오지 못한 것 같아 마음이 무겁습니다.
+리뷰로 남겨주신 소중한 말씀 빠짐없이 새겨들어 더욱 나아지는 모습 보여 드리도록 하겠습니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="n">
+        <v>45442.21011574074</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3675,57 +3238,43 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>d4d7a1e9-9a4e-4dfd-ba9a-2b5dbfb70198</t>
+          <t>f9752eaf-7293-430f-8bc3-120ed9735475</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>온실장</t>
+          <t>와룡운장 (흑사)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocL7PFfCnaOjLmXf8TYOTWW620kx1lQTviDBCTcLPbkRl2DnKw=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKwwbm-D4Ag54qOrV6qiV09oA2uk5a-1dos_UKhaHxLj-xLaw=mo</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>항시 이용하고있는 게임입니다 그랙픽에서는 전세계1위인거같아요 관리자분께서 고객의마음 귀를 기울여주셨으면좋겠습니다 확기적인 쿠폰을 기대하며 많은 응원 기대합니다</t>
+          <t>이벤트 신규 복귀 유저들 다시돌아오세요</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I60" s="2" t="n">
-        <v>45512.40773148148</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-리니지M을 즐겁게 플레이 해주시고 긍정적인
-리뷰를 남겨주셔서 저 또한 매우 감사하고
-뿌듯한 마음입니다.
-앞으로도 즐겁고 만족스러운 리니지M이
-되기 위해 힘쓰겠습니다.
-고맙습니다.
-</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="n">
-        <v>45512.45116898148</v>
-      </c>
+        <v>45523.05356481481</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -3735,56 +3284,43 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>d27f021a-3016-406e-8e83-db4f14702fe7</t>
+          <t>df18ff96-2a8d-4d4e-b9e1-1dced74b3e0e</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Jen Duti</t>
+          <t>킄킼</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVxQXONOqljebZj9rm09CDzhqVSmaLRKIky9_TTAyaGACG1KjQv</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLmcYoB75JSP6pcHccWgBX9vBajc0gcj-RCLVqrzS5zdSylZw=mo</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>오늘총 200 만원가량 뽑기를 했다. 영변 조차 한개 안나오고. 진행중이다.지금이라도 늦지 않았다 개 돼지 탈출하자.확률 개같음주의</t>
+          <t>아니 ㅆ 내 테라내놔 경매장에서 구매했는데 내 아이템 어디감</t>
         </is>
       </c>
       <c r="F61" t="n">
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I61" s="2" t="n">
-        <v>45512.08456018518</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님이 원하는 만큼 기대에 충족하지 못해
-마음이 몹시 무겁습니다.
-즐거운 컨텐츠를 제공할 수 있도록 노력하고
-발전하는 리니지M이 되겠습니다.
-감사합니다.
-</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="n">
-        <v>45512.45599537037</v>
-      </c>
+        <v>45522.75275462963</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -3794,51 +3330,45 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>014d3d27-2473-4328-bea0-d62efad3f3fc</t>
+          <t>74f473ce-4965-496c-9231-f194a6a7f20c</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>이정훈</t>
+          <t>서하찡</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocItwBoWZtFmzlPmAIFYdT1RXUm1Vr2Jy7KBcffTAONRfoyjeA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKfDriVmLZOmUaMrvuQsD6-CxWl56WmBkXh9QMIeLURfWe0ew=mo</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>이게 게임이야? 이게 게임이냐고 이게 어떻게 게임이야? 엔씨주가 앞으로 전망이 우울하던데 게임을 만들어야지 에휴</t>
+          <t>재밌네요</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
-      </c>
-      <c r="H62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
       <c r="I62" s="2" t="n">
-        <v>45512.07599537037</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-기대에 다하지 못한 것 같아서 마음이 무거우며,
-바램에 다할 수 있도록 항상 최선을 다하겠습니다.
-혹시라도 고객님께서 게임 이용 도중에 도움이
-필요하시거나 개선해야 할 부분이 있다면
-Plaync 고객지원을 통해 문의 부탁 드리겠습니다.
-감사합니다.
-</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="n">
-        <v>45512.45280092592</v>
-      </c>
-      <c r="L62" t="inlineStr"/>
+        <v>45522.61185185185</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3846,22 +3376,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>614f4ed6-c431-4853-8ada-c444ac9b16d8</t>
+          <t>5b2366f6-7d20-479b-95a8-32a53384df9d</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Yon윤성민</t>
+          <t>김윤수</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX1Ds_9ZjLVb4qelWcE-kweGvcbeJJwzu-4J9BxbVlLmocQJgEY</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocI2oVNMstW2yG-Cule_9nHQp0GtIVgebinQ27EGJPaEs1dDfw=mo</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>현질이문제입니까 타격감이좋죠 돈안쓰고 게임을할수있나 문제는 컴터리니지처럼 현거래가안된다는점 ㅋㅋ 다이아로하니까요 컴터는 아데나로거레되니까 돈버는것도가능.전신성검사 소과금으르열심이하는중입니다</t>
+          <t>똑같아서 좋네요</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -3872,30 +3402,17 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I63" s="2" t="n">
-        <v>45511.8168287037</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께 즐거움을 안겨드린 것 같아서
-몹시 기쁩니다.
-다음에도 고객님의 만족감에 충족할 수 있도록
-열심히 발전하는 리니지M이 되도록 노력하겠습니다.
-고맙습니다.
-</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="n">
-        <v>45512.45163194444</v>
-      </c>
+        <v>45522.2684375</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
-          <t>1.8.84a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -3905,51 +3422,45 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>b05bd3fb-67f3-44df-bb44-5baf6727b227</t>
+          <t>37bedf90-0f11-4c21-9058-53e3f255b620</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>김정욱</t>
+          <t>윤채원</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJaiHl26gunPtEhPSm1VGLayZOmMuLLQa3t6sF2ek630vsuvg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLDY2yQhkexvw5f5sm-P30S1B0YE1F04_3UztwbbIgY9Il2RA=mo</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>쓰레기겜</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
-      </c>
-      <c r="H64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
       <c r="I64" s="2" t="n">
-        <v>45511.30243055556</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-기대하신 만큼의 만족감을 드리지 못해 마음이
-무겁습니다.
-게임 운영에 보다 더 신경쓰도록 하며 개선된
-모습으로 보답해 드릴 수 있도록 항상 노력하는
-리니지M이 되겠습니다.
-고맙습니다.
-</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="n">
-        <v>45511.43414351852</v>
-      </c>
-      <c r="L64" t="inlineStr"/>
+        <v>45521.59358796296</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3957,55 +3468,54 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4ad2b354-3636-4bb5-b8a5-3f6042fb7a46</t>
+          <t>2f4c2f0b-4f7c-462a-80ac-390320b5c74b</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Zhiming Li</t>
+          <t>현규bc솔익손</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIsVoulKYuosF8iwHeZ85ZVfjbTJpZbnTrNVh7l2QXW3qSZGg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKyL27uKFcbHDE6w3u1XkV_rMocCaSUqOt-jOpZfrk3r-XvHg=mo</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>굿굿굿</t>
+          <t>처음 시작할때 다운로드부터가 엄청느림 용량을 엄청 잡아먹는. 게임이란걸 알수있는 미친게임</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I65" s="2" t="n">
-        <v>45511.2685300926</v>
+        <v>45520.57664351852</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님께 즐거움을 안겨드린 것 같아서 몹시 기쁩니다.
-고객님이 앞으로도 게임 플레이를 즐길 수 있도록
-매사에 최선을 다하는 리니지M이 될 것을
-약속하겠습니다.
-고맙습니다.</t>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+설치 공간이 부족하다는 내용의 리뷰를 남겨 주셨습니다.
+원활한 던전앤파이터 모바일 진행을 위해 필요한 설치 공간은 확보를 해 주셔야 하며
+불필요한 앱, 기타 사용하지 않는 프로그램을 정리해서 공간을 확보해 주시길 부탁드립니다.
+더욱더 최적화된 환경에서 게임을 즐길 수 있게 노력하겠습니다.
+감사합니다.</t>
         </is>
       </c>
       <c r="K65" s="2" t="n">
-        <v>45511.43469907407</v>
+        <v>45523.37623842592</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -4015,51 +3525,45 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bf75955f-67a5-4677-a845-b547368b0154</t>
+          <t>890da826-764b-4613-87b9-2438b360066b</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>박천용</t>
+          <t>차요한</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocKPrgoknn69u4mHQmeyPfV05RkbKt9oY_dQzdCv5-XhtFxSsg=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUdM6Yd9a3CqY-grJjX5AfZsXEHA2LYbCSHnDxzoCA0OVY6d_tf</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>몇 천은 우습게 나가는 겜!</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
-      </c>
-      <c r="H66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
       <c r="I66" s="2" t="n">
-        <v>45510.94451388889</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-게임 만족을 위해서 항상 노력하지만
-고객님께서 기대에 미치지 못하는 것
-같아서 아쉬운 마음이 앞섭니다.
-아쉽고 흡족하지 못했던 사항들을 개선하고
-한층 더 노력 해서 원활한 서비스를 제공해
-드릴 수 있는 리니지M으로 거듭나겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="n">
-        <v>45511.43372685185</v>
-      </c>
-      <c r="L66" t="inlineStr"/>
+        <v>45520.02841435185</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4067,55 +3571,43 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>f7af5c28-e1e4-44ca-b399-0c227baf3917</t>
+          <t>c5a7a738-1801-4d2c-be72-1366d01a752f</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>워누니</t>
+          <t>박성주</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUwNqKD55kaQCdRlIfiNhqt5KsgpUckEO1EQdb_iK2PikV7ULM</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJoHjXb5B39BJGvUqHhbfaMh6SqUdDovy0wiraoDL74rdSLpg=mo</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ㅂ50겜</t>
+          <t>추억의게임</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I67" s="2" t="n">
-        <v>45510.66228009259</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님이 원하는 만큼 기대에 충족하지 못해
-마음이 몹시 무겁습니다.
-즐거운 컨텐츠를 제공할 수 있도록 노력하고
-발전하는 리니지M이 되겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="n">
-        <v>45511.43320601852</v>
-      </c>
+        <v>45519.71436342593</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -4125,56 +3617,37 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>97e4a9ee-71db-4288-833f-40980ad54ee5</t>
+          <t>21c4e93c-283f-492f-b6f5-fe3007db1b4e</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>김근희</t>
+          <t>왕성호</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLYuX5_-wr8ZnFappS4xHwYphNHiJwJhdY7TnYKJ3n3Uh5nnA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUGtXY0gketVgrlB578wrgqCJwzVkS_DlkqLJQfDYMzCE9PkBg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>각인 상자 증발했어요 ?</t>
+          <t>아주 재미있음</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>1.8.83a</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" s="2" t="n">
-        <v>45510.59136574074</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-해당 아이템이 소실되어 리뷰를 남겨주셨네요.
-이용에 불편을 드려 죄송하나, 고객님의 정보를 확인할 수 없는 리뷰로는 정확한 원인을 찾기에는 어려움이 있습니다.
-번거로우시더라도 plaync 고객지원 문의하기를 통해 접수해 주시면 고객님께 필요한 도움을 드릴 수 있도록 노력하겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="n">
-        <v>45510.66797453703</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>1.8.83a</t>
-        </is>
-      </c>
+        <v>45519.51128472222</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4182,43 +3655,43 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2b97a9cd-f270-463f-9385-a93eb78b7171</t>
+          <t>d0a6ef09-4b79-4898-b93b-ef204495fa1b</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>주준헌</t>
+          <t>브릿지</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJBoGZcUVmGmuIYSM2Dlyd16r9QvyUtkddG06wKaJ6YgF7-TA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXkmGGk1Al6d-2cw7_tCJEaKxAiVP9RSE3sbfJjzH5BR1eLHCc</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>김택진 김범수. 잡아서 국정감사. 해주세요. 민주당 위원 님들들. 저들은. 칼없는 살인자들입니다. 제발 부탁드립니다</t>
+          <t>재밌음</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I69" s="2" t="n">
-        <v>45510.58684027778</v>
+        <v>45519.14078703704</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -4228,22 +3701,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>177eb591-cc0f-48ca-bfe3-fd56baa539a8</t>
+          <t>c049c15f-c4f0-41a8-9094-dec0715dfc87</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>장명진</t>
+          <t>장우형</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ_umPedjAG7y8sLLVCgb75T5kjIzaPF5j5oKp54NpynRH2VQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIoEUygsanhPbm_sGZYuDK4R6Sdc2_WUt6AeGC4F6uevULxZA=mo</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>친구가 하고 있는거 보고 같이하려는데 생성제한이라 못하는데 신규들은 제한 없이 생성하게 해주시면 안되나요?ㅠ</t>
+          <t>굿</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -4252,32 +3725,21 @@
       <c r="G70" t="n">
         <v>0</v>
       </c>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
       <c r="I70" s="2" t="n">
-        <v>45510.44438657408</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-캐릭터 생성 제한으로 인해 즉시 게임 이용이
-가능하지 않으시어 많이 답답하셨을 텐데요.
-캐릭터 생성의 경우 서버 상황에 따라 유동적으로
-변경되기에 정확한 일정에 대한 안내가 가능하지
-않은 점 부디 너른 마음으로 이해해주시길 바랍니다.
-답답하신 마음에 리뷰를 접수해주신 만큼 생성 제한
-서버의 캐릭터 생성 제한 해제에 대해 유관 부서로
-전달하겠습니다.
-혹여 궁금하신 사항이나 기타 문의 사항이 있으시다면
-언제든지 plaync 고객센터에 문의하기를 접수해 주시길
-바랍니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K70" s="2" t="n">
-        <v>45510.49334490741</v>
-      </c>
-      <c r="L70" t="inlineStr"/>
+        <v>45518.66534722222</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4285,54 +3747,43 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>695c4ddc-cbb8-425e-8427-9d7977e5024c</t>
+          <t>7f3fd986-93dd-4ef9-a38b-4c16e09c96c9</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Kim해피민</t>
+          <t>스타킹패티쉬</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWhocz_pPL2FZ2d2CKU54qyZ3YNnExGj4IZ6J0pGZU1AgRAinah</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVvjcYJWpAlO0L4H0xsb0PJomBJeCCbXLHgtNMwRMrcD8n2J37m</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>차라리 포커나슬롯게임하세요 그거하면 돈이나따지 이건 그냥 버리는거임 확률도 최악인대다가현질로 돌아가는게임인대 남는것도없음 도박게임보다 더악독한게임은 리니지가 최강인듯</t>
+          <t>재미좋아요.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I71" s="2" t="n">
-        <v>45508.56228009259</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-고객님 한 분 한 분의 만족스러운 게임 플레이를 위해 노력을 기울이고 있지만 고객님의 기대에 저희가 부응하지 못한 것 같아 아쉬운 마음입니다.
-남겨주신 의견을 참고하여 즐거움만 가득한 리니지M가 되도록 노력하겠습니다.
-감사합니다.
-</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="n">
-        <v>45508.68087962963</v>
-      </c>
+        <v>45518.63732638889</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -4342,59 +3793,43 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>9350c037-a880-4803-8837-c18da8af6410</t>
+          <t>1008fbc5-0110-4dca-92e5-0141bad70507</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>승덕꿍</t>
+          <t>Cgi Gav</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIzx-3uhRgUAewY4Xz4pcxyFrhyeIoY190ss2NAKL34JAIIoQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLVwIFzSBgBnPpv0Gtkp1CJKrlMAGVqIhEPKzhQ9fyAtt1YmQ=mo</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>이번 업데이트 이후로 게임이 먹통이네요 갤럭시 a8 star 입니다</t>
+          <t>갓겜</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I72" s="2" t="n">
-        <v>45506.9952662037</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-원활한 게임 진행이 되지 않아 많이
-답답하셨겠습니다.
-빠른 도움을 드리고 싶지만, 죄송하게도
-리뷰 답변으로는 상세한 도움을 드리기
-어려우니 번거로우시겠지만 해당 현상을
-확인할 수 있는 스크린샷을 첨부하시어
-plaync 고객지원으로 문의 접수 부탁
-드리겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="n">
-        <v>45507.36383101852</v>
-      </c>
+        <v>45518.38253472222</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -4404,37 +3839,45 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>fcfe26fc-cd82-455c-9d9b-c51190899868</t>
+          <t>04e44b96-63d9-4dbf-8dfd-bb95f911a996</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Rover Activist</t>
+          <t>김종근</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVZtFbyckAfR4J2fnJXMQ-muib5da5RavrjOttVZZhpGy-8eNg</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLk09Vx5qdYK7Cpl-3Xxy1r_N3vCrpFxsWHmjeSIUaG14t7Aw=mo</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>개고기 탕후루</t>
+          <t>초기에 나왔을때 pc만큼 할만하네요</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G73" t="n">
-        <v>4</v>
-      </c>
-      <c r="H73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
       <c r="I73" s="2" t="n">
-        <v>45506.86854166666</v>
+        <v>45518.25476851852</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4442,58 +3885,43 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bea6d105-2242-4451-9bc3-594ad3719c55</t>
+          <t>0ec1fb51-cfeb-43f4-a87c-50e9777fa024</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>진원주</t>
+          <t>Ray Ko</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWEiizLY8AicMttKOs0JZzevgDrUe4BMlJgjwQY6Dx8wGApYW6p</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLxucbFQeKWQcLx2eEV1eA2sFnfzgsP1i2rDTKBW7u_W1GOew=mo</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>왜 갑자기 오류라면서 로그인이 안됨? 월보타임인데 안들어가져서 월보도 못하는구만.. 뭐 맨날 에러임?</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I74" s="2" t="n">
-        <v>45506.50215277778</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-해당 현상으로 불편함을 끼쳐드려 죄송합니다.
-말씀해주신 리뷰 내용만으로는 리뷰를 통해 정확한
-확인이 어려우므로 양해를 부탁드립니다.
-지속적으로 동일한 현상이 발생하신다면
-번거로우시더라도 plaync 고객지원 문의하기를
-통해 접수해주시면 고객님께 필요한 도움을
-드릴 수 있도록 최선을 다하겠습니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K74" s="2" t="n">
-        <v>45506.6055324074</v>
-      </c>
+        <v>45518.14722222222</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -4503,45 +3931,37 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>774e88e8-a1b7-44df-b132-2a7e813bf913</t>
+          <t>fdb3770f-3298-42ee-a33d-c441488a41e7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>이현</t>
+          <t>이정기</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXfsL1RD9LmK7ANj8B5opQ0-L8esx-EVhPvKoPRXLAULuQuOtE</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJzmT_65N6yjA4P7sfk8ko9n8S6VbIoyaZTVoadC-H5-gO51eM=mo</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>이 me친 sekki들은 주식이 10창나도 답변 성의가 10창렬이네 너넨 진짜 망해도 싸다</t>
+          <t>흥흥</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>6</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>1.8.17a</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" s="2" t="n">
-        <v>45506.06545138889</v>
+        <v>45518.05425925926</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>1.8.17a</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4549,43 +3969,43 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8537e728-1172-405b-a673-1cc875a0a2c0</t>
+          <t>ce7a398e-34c6-46f7-8fdc-8ee8e3f85a73</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>조덕준</t>
+          <t>채시윤</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocLw5_5QwcF4Mdji7aTAT6Qryoo17G1RcgemVKLKd4myURdnwA=mo</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWZw1U8xuu4cGVsYEiLaHH5DQaGxEiboix8RBhYnE4N6A9SRgIC</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>넵 드다 ㆍ</t>
+          <t>꿀잼쓰 애옹</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I76" s="2" t="n">
-        <v>45505.95859953704</v>
+        <v>45517.80418981481</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>1.8.81a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -4595,59 +4015,43 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>19a540d7-b759-402f-82a4-5789608a3ce2</t>
+          <t>1011e6aa-5af2-475d-8acc-84d7a311727b</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>행동방경</t>
+          <t>양성열</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocIAqCuJKQwpIgkPIZoDKYwiiKAVtcjSYRpl_keeD5g9eHHFXQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKtLmqWuNR-jsOXrzXr9UVM_N4DBQi8WpuNJ_wrObikt6tIeg=mo</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>한달 게임 후기 이건 최악이다. 렙 66 게임 시간 한달 게임 플레이 낮에 8시간 자동 퇴근 후 절전 모드 익월 아침 출근 전 까지 매일 게임 플레이 한달 동안 희귀아이템 구경도 못 함 희귀 제작 비법 구경도 못 함 고급템 4개 먹음 이게 끝 어느 플레이어는 희귀템만 하루 기본 5개 이상씩 희귀비법도 5개씩 먹음 황당함 할 말이었다. 뭔가 투자 하게끔 해줘야 투자를 하든 현질을 하든 하지 접을 려고 함</t>
+          <t>아니 던파하려고 드러갓는데 전부초기화되있네여 캐릭터가 전부 실종됬어요 복구시켜주세여 하질못하잔아여</t>
         </is>
       </c>
       <c r="F77" t="n">
         <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
       <c r="I77" s="2" t="n">
-        <v>45505.73234953704</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M 입니다.
-충분한 재미를 드리지 못한 것 같아
-너무나도 마음이 무겁습니다.
-남겨주신 소중한 리뷰를 통해 보다 더
-개선된 서비스와 즐거움을 드릴 수 있도록
-최선을 다하는 리니지M 되겠습니다.
-궁금하신 사항이나 건의사항이 있으실 경우
-언제라도 plaync 고객지원 문의하기를 통해
-문의해 주시길 바랍니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="n">
-        <v>45506.40111111111</v>
-      </c>
+        <v>45517.79076388889</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
-          <t>1.8.83a</t>
+          <t>28.4.2</t>
         </is>
       </c>
     </row>
@@ -4657,50 +4061,45 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9009790a-9e37-4907-a3cb-ae652b16b9d2</t>
+          <t>acc9883a-1735-4b1e-b815-94bc3343dcce</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>킴오크씨</t>
+          <t>김영환</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUaDi_MW_rRlwsCYUsUpq_fdiQScMqPQ_ZIM9AGrFcNlMe2H0Tr</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocL4oOeVOORcqzs6DsJ9e5wCvhydIStEAL3K5Vaz--yadA6UWg=mo</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>쓰레기 과금게임 한국 게임업계를 망친주범</t>
+          <t>재미있네요</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
-      </c>
-      <c r="H78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
       <c r="I78" s="2" t="n">
-        <v>45505.08677083333</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M입니다.
-고객님께 충분한 재미를 드리지 못한 것 같아
-너무나도 마음이 무겁습니다.
-남겨주신 소중한 리뷰를 통해 보다 더
-개선된 서비스와 즐거움을 드릴 수 있도록
-최선을 다하는 리니지M이 되겠습니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="n">
-        <v>45505.40456018518</v>
-      </c>
-      <c r="L78" t="inlineStr"/>
+        <v>45516.56788194444</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4708,55 +4107,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>fa1d9c3d-1ed7-4ce9-bea7-64abff34f11c</t>
+          <t>9b665eae-e724-4cee-8c15-e70a5ad8caee</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>김용기</t>
+          <t>이동준</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocL_NVUZuYWjD8zdvo4Lt0k3wJWPSkeLdtrYq1xfmY-y8EwNpQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKtuX12uOZr6bB9lXg9CIK8gK7OQbVrt2CFKkj3PVQSAmR7yQ=mo</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>전변,전인 각성하게해주세요...</t>
+          <t>게임성 만족하는데.. 피로도 시스템 때문에 못하니 안하게되네요</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>1.8.81a</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" s="2" t="n">
-        <v>45505.05971064815</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>TRIGGER : 진혼의 방아쇠
-안녕하세요. 리니지M입니다.
-리니지M을 사랑해 주시는 고객님께 더 큰 미소를
-안겨드릴 수 있도록 언제나 노력하겠습니다.
-감사합니다.</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="n">
-        <v>44754.59334490741</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>1.8.81a</t>
-        </is>
-      </c>
+        <v>45516.44255787037</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4764,58 +4145,4516 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>19a69a45-80ad-415a-b7b8-4cb41e48fe64</t>
+          <t>fdf6b03b-19ab-4afb-9016-631db7304824</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>최광일</t>
+          <t>여지도</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ8rPLYCB5LV1ZOYbwHEplHjRi7f4LUkXCtuf0UfEOmiwJLDQ=mo</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKkU7lwpp8Kii8QeJ9-blgjnRP3NoNTGV71eE7Kx7pGdWenMQ=mo</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>지금 리니지m게임 화면 접속 하면 검은 화면만 뜨고 안됨니다</t>
+          <t>이미지 떡락 ㅇㅇ</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>45516.02501157407</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>b262dc86-e5b1-479b-9ff3-daba73a2e8a9</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>김동혁</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJXpabyvKxWKp9T3lspzIouMaiYP8e6_FoVCfqVPSDvsMRt=mo</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>옛 추억의 회상용만으로도 충분히 만점 받을 가치가 있는 게임</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>5</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>45515.87670138889</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+재미있게 플레이하고 계신다니 정말 뿌듯합니다.
+항상 재미있게 즐기실 수 있도록 최선을 다해 노력하겠습니다.
+많은 관심과 성원 부탁드립니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>45520.28484953703</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>41536c19-3fe0-4785-ba7b-3a8004c3c689</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>장시현</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU42oXIrlBMOreuAdq98XN_Wxna9t2z-ckoas9aheXlCprvLdcS</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>아주 만족합니다 시간 때우기도 좋구요</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>5</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>45515.62645833333</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>595a583d-fc9a-421d-a11b-b27605811f56</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>장상식</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVonIoFAgT0LAQhNWROM4lmkxFX8Outbbrnlfv8ZxQzo7egtzHRnw</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>간만에하는데 재미있네요</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>5</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>45515.29494212963</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2fa8cfaa-c74f-4c62-b30b-0f00b76db322</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Seungjoo “찰스로드” Kang</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK_sBo04Qr6qhRq3a9Po7Re94cI4zX5wznKjr6SsObmpNRlZg=mo</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>재밌네잉</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>45515.05863425926</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>de5a9a21-eff4-4e24-ab2c-b8c917548399</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>hoondo</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIDkTXytsHE4i5VBroynlb07nMCST2-MI2rqLNZKbUo8Cj3Vw=mo</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>추억 살아나고 좋은데요... 결국 레이드가 강제되는게 별로네요 추억이면 추억답게 고던 템사 노가다 이런거나 좀 구현해줬으면 좋겠습니다</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" t="n">
         <v>1</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>1.8.83a</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="n">
-        <v>45505.01806712963</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>리니지M - EPISODE. ZERO: 생명의 돌
-안녕하세요. 리니지M입니다.
-해당 현상으로 불편함을 끼쳐드려 죄송합니다.
-말씀해주신 리뷰 내용만으로는 리뷰를 통해 정확한
-확인이 어려우므로 양해를 부탁드립니다.
-지속적으로 동일한 현상이 발생하신다면
-번거로우시더라도 plaync 고객지원 문의하기를
-통해 접수해주시면 고객님께 필요한 도움을
-드릴 수 있도록 최선을 다하겠습니다.
-고맙습니다.</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="n">
-        <v>45505.40354166667</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>1.8.83a</t>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>45514.55381944445</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+남겨주신 리뷰 내용 확인하였습니다.
+즐겁지 못한 경험을 드린 것 같아 마음이 매우 무겁습니다.
+앞으로 안주하지 않고 항상 개선 방향을 찾아 더욱 즐거운 시간을 보낼 수 있게 고민하겠습니다.
+아울러 불편한 사항에 대해 게임 내 고객센터로 문의 부탁드립니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>45516.42413194444</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ea1cfb79-e4e0-4a0a-892a-d369563be861</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>롤신혼여행중 롤한판</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJCEO9WTEJfGgd7XVYw4dQue6rVOgQn94TI7Ihr5RWbQyGGGQ=mo</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>굳 꿀잼</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>5</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>45513.62247685185</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>5c12c3cf-d333-452a-845b-da192ae08c0e</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>민혜민</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXOCIPbCO7wtAMCxzFqeYxormH_AoBlZAnWOSnMOG9viY9AAeI</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>pc버전 던파 캐릭터(남격투가,도적,남마법사,총검사 등)캐릭터 구성 계획도 하면 좋겠어요</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>5</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>45512.00969907407</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+말씀해주신 의견 외에도 전하고 싶은 말씀이 있다면
+언제든지 편하게 전해주시길 바랍니다.
+항상 소중한 의견에 귀 기울이도록 하겠습니다!
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>45514.25310185185</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1753f249-fc6d-483e-9747-8a8b80fc8a54</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Me Me</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLxzLukbgUpTNhQag-N4WUlKppK0nIxq70ItW1KNPUUbkrfSw=mo</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>아직까진 할만함 역시피씨로 해야지 모바일은 비추</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>5</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>45511.74106481481</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+소중한 의견에 감사드립니다.
+전해주신 말씀을 기반으로 더욱 즐거움을 드릴 것을 약속드립니다.
+이외 다른 의견이나 전해주실 말씀이 있다면 게임 내 고객센터로 목소리를 전해 주세요.
+성심성의껏 도움을 드리겠습니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>45514.25394675926</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>7f6a57ca-549c-450b-808e-22668e7fd159</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>김민혁</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKYpWhwuUHgpdodxH_4HWaiIGkLklgyGz1GQo-DbpbYLu4CmA=mo</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>제민다</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>5</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>45511.42449074074</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ae331d9c-6338-40d0-b585-d3ab5e02d23b</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>김진기</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJlQINeY4rNU1PIFkn0mFaVqP3YVGcXfx5odjpggtV6IK-K1g=mo</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>진짜 패치좀 제대로하소. 결투장. 때리고. 있는데. 맞으면. 머. 어케 하라는거임.</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>45511.40571759259</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+게임 이용 중 아쉬운 부분을 리뷰로 남겨 주셨습니다.
+말씀 주신 부분에 대해 항상 참고하여, 더욱 즐거운 게임 이용을 할 수 있게 노력하겠습니다.
+이 외 전하고 싶은 부분이 있다면 고객센터로 문의 남겨 주시길 바랍니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>45514.25328703703</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>d2e065a2-db76-4321-a09e-0ff151bbf90e</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>h you</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU6bKZryJK7bkstsJIPFdzLrOwHbofrHXxWsF32rkKzDqzxBLTw</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>꿀잼</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>5</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>45510.77652777778</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>962fba46-5800-4d3f-a907-c35892e9d59a</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>그니</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK9o_MfvuG8aGRBvbX4yzbTAF6sUhZRjf_EM6MwAmTCk5Nz47E=mo</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>초심 잃음.. 초반에 비해 컨텐츠 루즈해짐 템 다 맞추면 강화말고 할게 없음 이제까지 돈 쓴거 전부 환불받고싶음</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>8.59.5</t>
+        </is>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>45510.73076388889</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>8.59.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2ec4c15a-b3e0-444c-97f1-a4c7a509190c</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>황영찬</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUIoYbO0A1a4tpUnOtu0MZ2gSkDKYwGdYb3189KjMSRNbnqcdiu</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>레어 아바타 한부위에 10만원 가량 드는데 이게 맞나요..</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>45510.67085648148</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>37f5c80f-dcbe-4878-bd73-8063e68811a1</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>시니</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJQBje0QKNzt22M8bIJv_LUEdXIJ6nBJ3INtYwWbLSuOQUmVQ=mo</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>제발 폰 스킬배치칸 좀 늘려주세요..ㅜㅜㅜ 제발요</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>4</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>45510.65875</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>4bb5641c-17d8-4f33-98c3-77ccb3e5f536</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>이승호</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIJ7Asn51QJG8TI_7anjczhJNyl7dSxEC2yOsyoGDc0BqNu-g=mo</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>재밌어요</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>5</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>45510.2925925926</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>99468b7a-36cc-455c-91db-bfefc93a8437</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>더운여름</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjV8QG9mEkFt3cfXzk3pvS4-Ogz45E-kl58lvGJQy31ijoI57UyZ</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>재밌습니다</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>45510.2028587963</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>30749b33-ec16-4bb0-8144-65a3a342b174</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>tnv qkr</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKKasZVSHwHjNucI8kikBvMgQT_vdR2yNLOHkIjaGIhyZV03A=mo</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>쏘쏘함 직업 전직이 이상하게 몰린게 단점</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>3</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>45509.54806712963</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>7afde106-53dc-48c7-ab31-179f6a98d1d6</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>김정감</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocItdDxY_OHSmLkuxLGPqK6ov739nefFjQGHSZqMvP3eNH43lg=mo</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>PC로했었다가 모바일로하니까 재미 있는 것 같아요</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>5</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>45509.52625</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>f2dfdf90-64bb-409e-834a-37c2a73c51f5</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>쇼펠</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIvZpjNJa1g6jGRnzzjridJnZ7nbgNklBvYcrtjKn-Tc00P-w=mo</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>옛날생각 나고 재밌어요</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>5</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>45509.48751157407</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>fdd457de-2e2a-45d4-b8f8-bad431dbd951</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>김회성</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKBGgSfuXy-RDqW4t_hvD-Zyr63iCQelnfUNl28dOJB1AVYtA=mo</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>다시접속해서 구글계정연동하니깐 캐릭터들이 다사라지고 없어요 복구부탁드립니다</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>45509.22430555556</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+로그인 관련으로 게임 진행이 불가하여 리뷰 남겨 주셨습니다.
+신속하게 문제해결을 해 드리고 싶지만, 이곳에서는 단말기 환경을 파악할 수 없어
+문제 현상에 대한 확인에 다소 어려움이 있습니다.
+자세한 문제 현상과 함께 넥슨 고객센터로 문의를 해 주신다면, 확인할 수 있도록 하겠습니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>45511.2440625</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>7ebdcd87-cf58-4b34-a777-fd02c5fd6b86</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>김성웅</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLNRSfBnbRa6l2aEuYqDaMJ69URAK6jUGa0kVJiEk0pFV8vLw=mo</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>옛날추억돋고 좋네요 ㄱㄱ</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>5</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>45507.38491898148</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1384f259-2f48-4aff-a0ca-f3fad3c21c84</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>우보라</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJtpDwXp-sj0yPUSJbjWmLAeK3oBAKqmKitSeftqcRlphqSNg=mo</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>꿀잼</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>5</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>45507.14405092593</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>bc0494c7-2f10-48ec-b710-e2d9a90674c5</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>용감한공룡</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJh3qSUegPURy_7-gdm1wSB-uaxzEpYJpBhV1RQum2WA7u5LnE=mo</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>5</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>45507.05217592593</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ae6956db-5c69-4b94-9859-92eeb05c1cc2</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>김범수</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXQDMVxd6cmbScLQHDbLSSeJRWw8ZsLgYOXTcYei__955NSChg</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>케릭터좀 빠딱빠딱 내라 굼뱅이들아</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>5</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>45506.70841435185</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0cc95432-a106-4411-ba20-a19da6f9db9a</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>유기태</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJL-Csjrt4SJfQUW89UsBrPyDUVQYVCFqeOIUcsQrJHzOA7PQ=mo</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>5</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>45505.75135416666</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0ab24fd6-5295-4e0b-8c9b-2beaf4c9b953</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>주형김</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJnuW99lA1ZTsfOu5YPfg85EJ2AV6BeqvDMJ1SRupzd95zP3g=mo</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>woa</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>5</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>45505.56608796296</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>6f395a97-8be6-497d-811c-f9bf03c95d50</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>장길봉</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIZxHAGg2HKD_b2UsD6WVcczuIp1MI2iJiFvoHhKPaHYNXLbw=mo</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>여런쳐보다 마도학자가 더 재밌네</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>5</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>45504.48268518518</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>40446c32-86f7-4bd9-ace4-7e7d37b00132</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>김규태</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKliZnEh5n4OZGkRoRu8g9F7p7v39udzulX1M1E8Gw3aJZHQQ=mo</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>캐릭터도 다 이쁘고 재밌어요. 아이들하기도 좋더라고요</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>4</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>26.3.0</t>
+        </is>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>45504.45333333333</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+게임을 선택해 주시고 즐겁게 이용해 주셔서 감사합니다.
+색다른 서비스와 재미를 함께 드리기 위해 노력하겠습니다.
+오늘도 즐거운 게임 플레이 되시길 바라며, 꾸준한 응원 부탁드립니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>45508.20118055555</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>26.3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>bcdb1ed0-3d39-4deb-ac3e-09cfd49e5bd0</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>HyoMin Park</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXD3p_VF_3lTbB9tJqZ6uGEjCiJsL4qcqYC4gie6u9vKXaL2ns</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>5</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>45504.43246527778</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>30d47c30-7d9d-4295-9d70-af41ed8d61b1</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>한상준</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ6I7e2vaGQl0pcCXnem_nf--c1ohnEWu2iA6l1aR6wrWrtJg=mo</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>재밌어요!</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>5</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>45504.40516203704</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>98f997ba-1ffc-4e25-827a-164fbb33a3cc</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>nv a</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjVuTHO7aglXPq1fqKlGBbqM61jVi4_OzxXz6EBoL9CdCvrWpmUP</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Bad</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" s="2" t="n">
+        <v>45504.40215277778</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>3b9c672e-7f2f-4ef2-998b-daf2e694a13f</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>박태호</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIwAHbswjEDlrohXftLV2C3ZrqHHrUlaqlgJYDuo6o9yrcgsQ=mo</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>나쁘지않음 옛날 던파갬성</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>4</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>45504.20834490741</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>a0d67e21-00f5-49f8-9702-ffb4110272b9</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>로즈나비</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXDfk7ba6CJtqrpbDkmcXxMkuIAc4GtPhhUFc7Tye8Vn-p6sd8</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>퀄리티 끝판왕</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>5</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" s="2" t="n">
+        <v>45504.09471064815</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>118a3c74-fec2-4823-a1ed-e17fdd5c01c1</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>윤지원</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJWmvu003m0gW3MKJ8PvOJ92VBgnHUsaHYyoWYLuLxH-_bVWA=mo</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>투기장 유저인데 하다가 끊김 현상 계속 나와서 삭제함 한두번도 아니고 이긴겜 지니까 화나네요 모던 탈출로 스트래스 덜 받을듯^</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" s="2" t="n">
+        <v>45503.68563657408</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>9c487496-98e2-4992-b69a-e5ed2be11552</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>히군TV</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJ_Jlr__EuMlnHgJxsQ-RVQGpwS3uWZcLrETIdE9bmheLeSfg=mo</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>3</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>45503.49133101852</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>4f3db78a-1cf9-4dd2-ae60-f5dc4672ca46</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>심재현</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKxL5fUJda72zYe3s7R76OvOrg13neMGnkLb7k3YAtv60Rq9A=mo</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>예전 느낌나서 재밌네여</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>5</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>45503.4131712963</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>70c87902-228d-440e-a15c-7193b4610170</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>고양이</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUReHYEKGEGxwzwGLFbRVML0zYFgvFtJv8LnXrvJ4NmZ4Z8JzTb</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>마고스 패턴 피해도 갑자기 보스앞으로 순간이동하고 즉사하는 버그 방치하네</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>45502.62003472223</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+우선 게임 이용에 불편을 드려 죄송합니다.
+다만 해당 현상의 경우 이곳에서는 정확한 확인이 어렵기 때문에 번거로우시더라도
+고객센터로 문의해 주시면 자세히 확인하여 도움을 드릴 수 있도록 하겠습니다.
+다시 한번 게임 이용에 불편을 드려 죄송합니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>45508.20108796296</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>20519ee5-aa39-44b2-9bdc-5c53cb5e2d70</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>김영찬</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJBz7WuWw3RLPHuWO2kr3I1aBaLSBt1b6gZ85XQ54XuzuNWgg=mo</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>굿잡입니다</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>5</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>45501.95847222222</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>bbb66b9d-f3fa-41f5-84e7-4f642d249017</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>공연배</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLms9qhZOkHb5rX7pquKhGX_o-lLb4JNbs0VIUp7Ntnmtph5g=mo</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>재미있게 할만해요~~</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>4</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>45501.47375</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>fd4f0f49-047c-421e-9a25-5beb359a492f</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>엘리야루</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXtdFPFwVOGjb-9lmd63qnleK44lO3yGtSqgA9J95mDM5Pmvi4z</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>옛추억이 떠오르네요</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>45501.28130787037</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0dd28ec9-7447-40ae-b288-da4218c89930</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>김용태</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIYttGkkEqMZ3shYNLN2rQxU8OFGzA2JzAp_HUdT92NsS6d=mo</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>잘만듬</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>4</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>45501.17833333334</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>6f2f913a-9411-4295-a10d-1dc27fcbfc47</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>김현우</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJnmV7u8DBsQNpC7PI1VvsUFgaqtjAftugN7spwejlgtvRdhQ=mo</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>재밌어요.</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>5</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>45500.1994675926</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>f50d9f8c-f89f-4fab-bea6-699034dd2d72</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>김성학</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJLwIB5KPoHiED05JN-gkEGD2RlwYtRKGItZWToGF44FII7oA=mo</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>골드는 어디에쓰는건가요???.....테라로 경매장에서 ....골드 쓸일이없네</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>3</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>45500.17202546296</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>da683289-2a39-424e-8fe9-886d2f22ffa2</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>형환승</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIr34-L76l1-xFTMMe5UfBY69UzvJZbbVMskV6otbxWzULV-g=mo</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>옛날 추억이 새롭게 나타나서 재밌게 즐기고 있습니다</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>5</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>45499.98710648148</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+소중한 시간을 내시어 남겨주신 격려의 말씀 정말 감사합니다.
+리뷰를 통해 전해 주신 말씀에 힘을 얻어 앞으로도 더욱 안정적인 게임 환경과
+좋은 서비스를 제공해 드릴 수 있도록 최선의 노력을 다하겠습니다.
+앞으로도 많은 관심 부탁드리며, 오늘 하루도 즐겁게 보내시길 바랍니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>45514.25359953703</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>ef0da26d-d868-482b-afa1-c1cab865e500</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>구시온</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJy3xKb2yVzvId2b8teMvdGnumTOtkjD1OCe0-7H5sMwc5K_g=mo</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>할만함</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>45499.42410879629</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>842c485a-5e7b-46b1-8feb-fcdadf9bf163</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>장주현</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXTiF5yX-T_BqPcVJg1XEbxGZJFjWIX0CnaR6QoTlfpnZGDdrw7</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>게임은 재미있는데.. 목요일 업데이트 이후 반복되는 무한한 추가 점검ㅋㅋㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>2</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>45499.214375</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+게임 이용 후 다소 아쉬운 부분이 있으셨던 것 같습니다.
+리뷰를 통해 남겨주신 소중한 말씀들은 빠짐없이 모아두고
+더욱 쾌적한 게임 환경을 제공해 드리기 위해 참고하도록 하겠습니다.
+이 외 불편사항이나 전달하실 의견이 있으시다면 언제든지
+게임 내 고객센터를 찾아 주시기 바랍니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>45503.2937962963</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>39776c5a-7ebc-4a6a-b5f6-ba4547a216f5</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>우유나</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLcXFTu6iVYCTvrVb-PjAjuldGNI10TRdq1cxoiJ4JAhIoEMA=mo</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>재밌어요</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>5</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>45498.77498842592</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>83ff5492-df18-47ad-97ba-8fe71f94ce03</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>김동선김동선</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocILRCw4MyvvOP18xX7GYcNpQYcdJLubn5kFaP9YcNLCuCLWGA=mo</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>5</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>45498.65818287037</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>8fe3d33e-ef1a-49b6-a192-56bd73124b2b</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>황인선</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXbmY0Bk3g7Wz78X-EM0JZiDXr1AtwYUgytC8SrsPJXRRY9-pou</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>차라리 오토겜으로 만들든가 .....ㅡㅡㅋ</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>45498.42853009259</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>d931ef45-c68e-4cc3-af96-580755f786b5</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>김오련</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKOqcKecs4AHkubS80WvmB4RUtZZKuK92mxMWNH1lbI6wH4eg=mo</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>너무나꿀잼</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>5</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" s="2" t="n">
+        <v>45498.42519675926</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2acb6d68-eb56-4fd3-8d18-9eb888262fc7</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>신중섭</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKU8MXWxnF2yjQ8xzuDudeh3dspngCh03GoI6LAUJOk4J0bbg=mo</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>오랜만에 계정접속 했더니 계정이 1개 랩1짜리 생성되어있고ㅈ싹다 사라졌는데 이건 뭔상황이죠? 자주쓰는 구글이라 공유한적도 없고 핸드폰 연동만 되어있었는데 돈도 몇백단위 쓰며 한계정인데 좀많이 어이가없네요 이건 무슨상황일까요?</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>26.3.0</t>
+        </is>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>45498.41614583333</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+게임 이용에 불편을 드려 정말 죄송합니다.
+빠르게 도움을 드리고 싶지만, 리뷰를 통해 남겨주신 내용만으로는
+자세한 내용을 확인할 수 없어 도움을 드리기 어렵습니다.
+많이 번거로우시겠지만, 공식 커뮤니티를 통해
+문제 상황을 조금 더 구체적으로 적어주신다면 꼼꼼히 확인하여 안내해 드릴 수 있도록 하겠습니다.
+접수 경로
+*넥슨 홈페이지 고객센터 → 모바일 게임 → 던전앤파이터 모바일
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>45503.29383101852</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>26.3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>7601a394-7ceb-4296-a7c7-d3f8d5934f50</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>김신우</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJmCG5i5cyS2OxAP0DHY2TgOSjcT1v_K5D3-MyUP1il5hYzMsQ=mo</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>재미있어요</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>5</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>45498.22112268519</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>7ee708fd-58c6-4a9a-aae2-84c3ab64d030</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ᄏᄏ어영욱</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKpSp_hXSIBE5vi2y_UrXTN6zkB7O-zgB8a-uuKiHXXZRgnzQ=mo</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>게임은 진짜 잘만들었는데 운영을 동네 구멍가게처럼 함</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>2</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>45498.15608796296</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>46234ffb-238d-4396-adb0-8c98bb8b65b9</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>pgs3512</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocL7FepyYM3c8buk8A5h7ezo5buPWftVt0r9K_QJjtnLljAh8g=mo</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>갓갓겜</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>5</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>45497.96359953703</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>28.4.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>f4b5c5cb-11fc-4975-9af3-c50d46eed047</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>씨르코</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJhDqG5ttolFPKn8yNb-d0x4ige06knHDVx-M5ProCe3U5EOw=mo</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>버려진 한국 서버</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>2</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" s="2" t="n">
+        <v>45497.94681712963</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>10db8c55-8a32-49be-93e7-4b55da963f52</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>성은하</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLmoaeavi4ePgyK9tGbJCPmc-ukpSY-tFsS2VO8DnxEH0vGvA=mo</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>재밌어요~~</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>5</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>45497.67099537037</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>296c45e3-a9f0-4005-9e7e-ac492b09f619</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>오언석</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJXUPouFfA-0D6gIA469TIQCrZWyvqFzmh-hR_PH9Fyljvsdw=mo</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>재미있게 즐기고 있어요</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>45497.52166666667</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>7c587dda-294b-4c8f-a4fe-ac01297c9569</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Hana KIM</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKRWpHvKBzqTdlMpZIINRWsr4atXtoOZGyzuQrPRXmCfCUriw=mo</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>재밌어요</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>5</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>45497.14665509259</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0ffffc8e-b919-4ce1-8674-729c62daadf6</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>우유</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjV3mPMDHnnbYsxVV-r_oImNP1pefSncL0tWmktl83eSnjkhHt2f</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>재밋떠요</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>5</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>45496.7021875</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>699cf56e-0c2a-4836-992b-9e0a760498b6</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>이원규</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIbtOm4iMGPRuvWbbQQJW_UHyOKeuwcMjPKvsl_gL1QRS_HLw=mo</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>어렵다.</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>3</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>45495.82256944444</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>a97f9b01-aea4-4b38-a2b4-a21c28977572</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>심남섭</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLHaRu8Dhdjc9EFx2Kw0EbglZc6durz42-K4vLKXHEPqAz65Q=mo</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>5</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>45495.6093287037</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>15d8945a-8658-4517-a119-bed90ea901bb</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Hyunjin Jung</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJMn0IHLlva7jGxO9G1gPNm3vAdPj6xIEoCUkM8zdLNFIZe=mo</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>피로도 좀 늘려주십쇼</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>5</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>45495.42836805555</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>663df29b-131f-4afa-a015-2c75f6f3ba0c</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>브리아르</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU9AdnLNRWkb9vB6dDxTK2BvVL-9_QfV5AyrmE8Mnr7QMfdwWwb</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>5</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>45494.15777777778</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>32987f4e-4dc9-4336-a7bb-60c748f8d0a6</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>김서후</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUN9H2vrMcSKuXqAcNXi1cR2z2yXv-Pm6LbUG9jy8fg_KUREhA</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>진짜 너무 재밌습니다 오늘 시작한 뉴비입니다</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>5</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>45493.7455787037</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>6a999776-926f-4c2e-9837-ab60639c33d8</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>권ᄋᄋ</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKNZvh85qIhdeTVVg4QaArg3seeBdxyJdrJrPCjeogbZgA90g=mo</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>피던보다 훨씬 낫다 야</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>5</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>45493.12861111111</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>e4dacbe3-6eef-4278-a628-b1315dc12de3</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>정순천</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIhKm-kACXqcJni9895FgyBpZMdDJvuObPRcTFfi9jlQU2m_g=mo</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>컴던파에 비해 조작이 간편해서 사냥이 쉬워요</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>5</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>45492.2000462963</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+게임 이용 후 소중한 평가 남겨 주셔서 정말 감사합니다.
+앞으로도 즐거운 플레이가 될 수 있도록 최선을 다하는 모습 보여드리겠습니다.
+이 외에도 게임 이용 중 불편사항이나,
+다른 의견이 있으시다면 언제든지 고객센터를 찾아와주세요.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>45494.19967592593</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2ebfb6d6-50e1-4a23-a7db-d93963aff8ea</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>storm mael</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJTnvGy3YRoQcz0aPI1mNEvNBFuOgMUD-dNLGVbdrKduqEg7Q=mo</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>좋아했었고, 나름 게임을 편하게 만들려는 부분들과 노력은 좋았으나, 최근 만든 컨텐츠들은 진입도 어렵고, 프랙티컬 돌파는 필요한데 프랙티컬 수급을 어쩌란건지 가이드도 없고, 최근 만들었다는 퀘스트도 항마 50000인게 이해가 안되고(그냥 기본 퀘스트일 뿐인데 50000??), 30주년 이벤트랍시고 받는 혜택은 거의 없다시피하고, 이번 이벤트 탑은 아까 언급한 프랙티컬로 업글을 해야 어떻게든 클리어 할텐데 왠만한 유저는 1층도 클리어 못하게 만들었고, 아직 오픈 시작한지 몇년 되지도 않았는데 뭔가뭔가 어렵구요. 아뭏튼 현직 직원 분들의 컨텐츠가 던파와 공통 되는 부분외에는 하나도 맘에 안듭니다 !!</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>9</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>45491.29790509259</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+최적의 게임 환경과 좋은 서비스를 제공해 드리기 위해 노력하고 있지만,
+만족시켜드리지 못한 것 같아 마음이 무겁습니다.
+리뷰를 통해 남겨주신 따끔한 질책을 가슴 깊이 새겨듣고
+부족한 부분들을 개선하여 실망 대신 만족을 드릴 수 있도록 최선을 다하겠습니다.
+이 외에도 게임 이용 중 불편사항이나 다른 의견이 있으시다면
+게임 내 고객센터 또는 공식 커뮤니티를 통해 언제든 말씀 부탁드립니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>45494.19923611111</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>3952cf65-b253-4164-8bda-1776702b6a6c</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>김민규</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocL5iDrrnBINQDj5EmwfAxop5z2EeOfJOYMQquPXeEY9fsJJ2Q=mo</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>👍</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>5</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>45489.49181712963</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>e53bb861-4978-48b7-978d-faf4094f1ded</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>이현준</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjV1C07bgv7wSuiF_6lM0z0_r4EKglq3pcPM1Q9EEdhzT2LpPGDF</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>할만함</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>5</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>45489.3750462963</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>8cba138e-4a36-40a0-b260-1d8a3144e6d9</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>진삼유저임</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWTW_qUijZivPh2VThR1dLjr1lCKYae357NqViKz0v36B0TIf4</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>조아요</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>5</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>45488.08140046296</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>4804de7e-96b8-461d-bf5f-7b7827a0e4ea</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>김서준</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIj8L2INfNh4QM3F7prdWzWVX6bnXtunbb-gx9iqcCk5EVRxw=mo</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>던파 감성 너무 좋아요 ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>4</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" s="2" t="n">
+        <v>45487.70518518519</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>10c2cb93-0bc1-4336-9caf-b2e1d0919007</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>극한의극한</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJmWNmU2oRyX9BmuFgVBdVw50BOL57TpDNnioKWn4M2n3HU4w=mo</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>조아</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>4</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>45487.67851851852</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>e2ab0779-7f12-44a0-837e-ec0124cbc3e6</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>JEONG SEOK RYU</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKZ1bt9qgGJ0CxZr-3aVoUilW6JI-6asO5mcKm8eTEJecD9IZk=mo</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>캐릭터 다섯 레벨 60이상 달성했네요 마창사는...나두고 쉴려구요...</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>5</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>45487.40420138889</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>6757818a-4406-4eb1-bf93-d87e64a403af</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>손주완</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXm_VmuEBJy1Kr1KJoevRXlNXsXs8nIfoL-ryaFo7MIxYKzknc</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>던파 pc로. 하던거 생칵나게 하는데 화면이 넘 작아서 컨트롤하기가 난감하네요</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>4</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I154" s="2" t="n">
+        <v>45486.00202546296</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+기대에 충분히 부응하지 못한 것 같아 마음이 편하지 않습니다.
+남겨주신 의견을 토대로 더욱 즐거움을 드릴 수 있도록 노력하겠습니다.
+이 외에도 개선이 필요한 사항들에 대해 공식 커뮤니티로 의견 남겨 주시면
+꼼꼼하게 확인할 수 있도록 하겠습니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K154" s="2" t="n">
+        <v>45490.21678240741</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>f1d1a37c-f425-4b61-98dd-600a67a69921</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>루파</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLouMR-5N40LGu1dfDF6XfpZnXXyll1v4lTDwBwbAnzTmCYW7k=mo</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>별점1점도 아까운 운영진이 개같이 말아먹은게임 일좀해라 제발좀</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="n">
+        <v>45484.48201388889</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+안정적인 운영과 즐거움만 가득한 컨텐츠로 보답 드릴 것을 약속합니다.
+발전해 나가는 모습 지켜봐 주시길 바라며, 더욱 분발할 수 있도록 노력하겠습니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="n">
+        <v>44797.27006944444</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>11302633-7d63-451e-8370-841cdf8c92d5</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>박현주 (팅글팅글팅팅글)</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUuZjaGcs0cqYzbWIs4r2VOS0RGUkBgfYUqEIzVHjgJyS83vOHi</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>굿굿 근본 던파 느낌</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>5</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I156" s="2" t="n">
+        <v>45483.46822916667</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>47508fac-d05d-49d1-8865-9ee08ac0dd37</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>박정환</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjXf6Gwd-kh7xoN8qaXfgqPVl5NQRrXOM9lTIV7AEzGj4PH1ciw</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>재밌네요 정말 비슷할정도로 잘 제작된것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>5</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="n">
+        <v>45482.98276620371</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+게임을 이용해 주셔서 감사의 말씀을 전합니다.
+언제든지 쾌적한 이용을 하실 수 있게 최선을 다하겠습니다.
+아울러, 게임 이용 중 전하고 싶은 의견이 있으실 경우 언제든지 고객센터를
+이용해 주시길 부탁드리며 항상 목소리에 귀 기울이겠습니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="n">
+        <v>45486.21322916666</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>f3af363f-4ab7-41d6-90a0-48a45c581258</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>사무엘킴</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWROw5oFSc9FCnW0FALMP3sUavLFjiLbeGAwGzRQQcbCHvsrCE</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>진짜..피로도를 따로 상점에 제한없이 팔았으면 좋겠네요..</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>4</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="n">
+        <v>45482.20152777778</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>534f745b-2a82-4af4-b07c-76c7ccb9e047</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>김태공</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKYPM9fy_CLA00k64SgkMF4yBFyQFOwTAT9ArLSPtLEcz8mjg=mo</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>이거 첫화면에서 계정 선택한번하면 다시 선택 못하나요? 오랜만에 다시하려니깐 캐릭터없는 빈계정이라 계정찾으려고하니 계정선택창으로 돌아가는 기능을 못찾겠네요. 계속 다시 지웠다 깔아야되는건가요?</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>3</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="n">
+        <v>45481.65686342592</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+빠르게 도움을 드리고 싶지만, 문의를 남겨주신 이곳은 게임 이용 후
+리뷰를 작성하는 공간이기에 자세한 내용 확인이 어려워 답변을 드리기가 어렵습니다.
+번거로우시겠지만, 게임 내 고객센터로 문의를 접수해주시면
+문의해주신 내용을 빠르게 확인하여 답변 드리겠습니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="n">
+        <v>45486.21314814815</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>3f199214-e0a5-4f44-8f7a-d50b358de54c</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>이정현</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLdEtH7JOmXI98g1kzn7rIX7ANakPsZ6MMhVd97LgYekBXvIg=mo</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>굳잡이</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>5</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="n">
+        <v>45481.18480324074</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>668c3c22-4ecb-47cb-9bd7-3da00bef5ed6</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>남조병준</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocL6-LrUX8HNXN-0LvoKj5UkwCFXq-pd8NC3cS3fZr0xWBLVwQ=mo</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>할만하내요</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>5</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="n">
+        <v>45480.62112268519</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>c656dca7-16c9-4710-abb2-7b70709487fe</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>윤태환</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIdc0oRaF2bZuA9wPYYb5HRoCRpSonNHK9m0HNbNTrrBqvMpA=mo</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>다른아이디 로그인 기능이 없나 ㅋㅋ..</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="n">
+        <v>45480.15359953704</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>d46c3a3b-45c9-4b28-9420-4b482c0d842e</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>강신우</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjW-hYZWSrLHuYlB1Sj8kFzV3hMF0NojIjAk5Rlyc14osgIB5KQ</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>재미있네요 Pc버전이랑 연동이 되는지. 잘 모르겠네요</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>5</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="n">
+        <v>45478.4209375</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>e49543cd-8f8d-4e11-b3e9-6c69ef6e6953</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>GC S</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJHBim-jzUQlULcx9uV4WNUIg97Z5DUgaNrxvO_qDtLC7BxhQ=mo</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>하루온종일 콤보연구하고 연습하고 아무리 숙련되고 압도하고 있더라도 Hp100을 한번에 다까는 쓰레기밸런스에 이름만 모바일던파지 피시플레이가 강제되는 쓰레기업데이트에 돈복사 사건터져서 안했었는데 지금모던이 옛날 모던이 아니라고 해서 어디한번 복귀해본다</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>3</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I164" s="2" t="n">
+        <v>45478.11584490741</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>안녕하세요. 던전앤파이터 모바일입니다.
+남겨주신 리뷰 내용 확인하였습니다.
+앞으로 안주하지 않고 항상 개선 방향을 찾아 더욱 즐거운 시간을 보낼 수 있게 고민하겠습니다.
+아울러 불편한 사항에 대해 게임 내 고객센터로 문의 부탁드립니다.
+감사합니다.</t>
+        </is>
+      </c>
+      <c r="K164" s="2" t="n">
+        <v>45481.36399305556</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>107c9cf5-7dd8-4bbf-8f6d-c330220a7189</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>김인기</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocIAsi9_x_7eDyCjDUaQOLQRmoE3Ib4vzWJdmghSyfjOUGliHg=mo</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>모바일은 pc던파 본인이 뽑은 레압,플래티넘 칭호, 크리처 경매장1회 거래 시스템 안생기나요?</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>5</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I165" s="2" t="n">
+        <v>45476.99024305555</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>86d05640-26b8-41c3-a8b3-6d1c4b732ed7</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>오진혁</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJgLK0UvDs64wmQZmgLpbbHMKbnbW2ZNXxbscgNqNQHySs4yg=mo</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>재미써요</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>5</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I166" s="2" t="n">
+        <v>45476.78114583333</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>994a1580-3e4f-4e31-bf09-33295e8bc5a1</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>이종열</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKKLeEMryysDSCh57-HRooPig20Oa2kiWZdXdoOGV42xc_-5w=mo</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>게임하면 지루하지않아요</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>4</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I167" s="2" t="n">
+        <v>45476.53105324074</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ea35367a-8fff-4df0-a0df-7bda52eded3f</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>김민수</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKsTsoh7zLAJyS1tbNmdZ_fAL44j1N-nCV4R6_RbaFGOO_Pjg=mo</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>너무재미있어요 게임이지만 생활에활력이대는것같아요</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>5</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="n">
+        <v>45476.40518518518</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>c50b087c-e89a-460a-becf-eaa28ffec79b</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>병임</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocKsGWjzZMQPrdGwRe5x77RfWUAhdT4LygljSKkklj7Fb-Kb1g=mo</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>굿</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>5</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="n">
+        <v>45475.59980324074</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>4723a7c9-b0c8-46d3-910d-cf37eb60a918</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>정중범</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocLA-HVvWUhEAEVuX5heTaZHXgabj5Y9dFZKG9llMaSbI_FwFA=mo</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>재밋습니다</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>5</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="n">
+        <v>45475.47717592592</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>f8b8523e-ba15-4798-9e0c-31ccd1397c1f</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>연연</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUxE-OpJqchCTJ_WD2Qcr2L2hVt6JibWYN6n2MWGsrW6WaadtHB</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>최고</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>5</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="n">
+        <v>45474.68116898148</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>16228500-224e-4e0e-b4df-196c90a4f507</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>뉴비사카</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjUEjLn-N2a4md9PoBOfjc15Y4ENr7BA4u9str5JrbFF7PYYDvnC</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>소통 안 하는 운영망겜</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>3</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>6.7.3</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="n">
+        <v>45474.66046296297</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>6.7.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>e158d252-30f6-4fd5-8d8d-a33b86f4f49b</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>고연우</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjURXdZGYLnJr56Y5_NmpjBzmZs90RyKZ7Qnu9mPZsJD5xUxwY6m</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>추억돋네요ㅎㅎ잼있어요</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>4</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="n">
+        <v>45474.50361111111</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>713ac3ea-e4e5-4de3-89bf-d0fa7af3e974</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>석정호</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocK3wAlclYJcT9J_h4rsKxHDLQ_cJlz5ThFCOkjZCOICnfQDfQ=mo</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>잼씀</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>5</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="n">
+        <v>45474.38537037037</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>27.3.1</t>
         </is>
       </c>
     </row>
